--- a/$GCO.xlsx
+++ b/$GCO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74E747C-B6A5-4EA6-B77F-F0B79CD75D5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF91B14-5046-420D-A907-CFE388B95769}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{CA5C391E-FF9C-4D76-A2B2-05E4025102BD}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="124">
   <si>
     <t>$GCO</t>
   </si>
@@ -70,9 +70,6 @@
     <t>CFO</t>
   </si>
   <si>
-    <t>Chair</t>
-  </si>
-  <si>
     <t>Profile</t>
   </si>
   <si>
@@ -116,16 +113,302 @@
   </si>
   <si>
     <t>Key Events</t>
+  </si>
+  <si>
+    <t>Nashville, TN</t>
+  </si>
+  <si>
+    <t>Chair&amp;Pres</t>
+  </si>
+  <si>
+    <t>Ms. Mimi Vaugn</t>
+  </si>
+  <si>
+    <t>Thomas George</t>
+  </si>
+  <si>
+    <t>Brands, Stores</t>
+  </si>
+  <si>
+    <t>Schuh</t>
+  </si>
+  <si>
+    <t>Johnston &amp; Murphy</t>
+  </si>
+  <si>
+    <t>Dockers</t>
+  </si>
+  <si>
+    <t>Journeys</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>Treasurer</t>
+  </si>
+  <si>
+    <t>Matthew Johnson</t>
+  </si>
+  <si>
+    <t>FY18</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>FY27</t>
+  </si>
+  <si>
+    <t>FY28</t>
+  </si>
+  <si>
+    <t>FY29</t>
+  </si>
+  <si>
+    <t>FY30</t>
+  </si>
+  <si>
+    <t>FY31</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>FQ123</t>
+  </si>
+  <si>
+    <t>FQ323</t>
+  </si>
+  <si>
+    <t>FQ423</t>
+  </si>
+  <si>
+    <t>FQ124</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Impairment &amp; Other, net</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Periodic Benefit Cost</t>
+  </si>
+  <si>
+    <t>Interest Expense, net</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Revenue Y/Y</t>
+  </si>
+  <si>
+    <t>Revenue Q/Q</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Net Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>FQ223</t>
+  </si>
+  <si>
+    <t>FQ422</t>
+  </si>
+  <si>
+    <t>FQ322</t>
+  </si>
+  <si>
+    <t>FQ222</t>
+  </si>
+  <si>
+    <t>FQ122</t>
+  </si>
+  <si>
+    <t>Loss from Discontinued</t>
+  </si>
+  <si>
+    <t>Continuing Operations</t>
+  </si>
+  <si>
+    <t>Journeys Group</t>
+  </si>
+  <si>
+    <t>Schuh Group</t>
+  </si>
+  <si>
+    <t>Johnston &amp; Murphy Group</t>
+  </si>
+  <si>
+    <t>Licensed Brands</t>
+  </si>
+  <si>
+    <t>Journeys Y/Y</t>
+  </si>
+  <si>
+    <t>Schuh Y/Y</t>
+  </si>
+  <si>
+    <t>Johnston &amp; Murphy Y/Y</t>
+  </si>
+  <si>
+    <t>Licensed Brands Y/Y</t>
+  </si>
+  <si>
+    <t>Non-Finance Metrics</t>
+  </si>
+  <si>
+    <t>Store Count</t>
+  </si>
+  <si>
+    <t>Store Count Y/Y</t>
+  </si>
+  <si>
+    <t>Store Count Q/Q</t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>A/R</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>OCA</t>
+  </si>
+  <si>
+    <t>TCA</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Operating Lease ROU</t>
+  </si>
+  <si>
+    <t>Goodwill+Intangibles</t>
+  </si>
+  <si>
+    <t>Non-Current Prepaid Taxes</t>
+  </si>
+  <si>
+    <t>ONCA</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>A/P</t>
+  </si>
+  <si>
+    <t>Current Long-Term Debt</t>
+  </si>
+  <si>
+    <t>Current Operating Lease Liabilities</t>
+  </si>
+  <si>
+    <t>OCL</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>Long-Term Debt</t>
+  </si>
+  <si>
+    <t>Long-Term Operating Lease</t>
+  </si>
+  <si>
+    <t>OLTL</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>S/E</t>
+  </si>
+  <si>
+    <t>S/E+L</t>
+  </si>
+  <si>
+    <t>Book Value</t>
+  </si>
+  <si>
+    <t>Book Value per Share</t>
+  </si>
+  <si>
+    <t>Inventory Y/Y</t>
+  </si>
+  <si>
+    <t>Inventory Q/Q</t>
+  </si>
+  <si>
+    <t>Inventory/Revneue</t>
+  </si>
+  <si>
+    <t>Share Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +444,63 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -280,28 +620,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,22 +645,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -341,10 +660,114 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,6 +842,111 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0E8F34-6A6E-4EBE-8ECB-A3CA4BEB7D62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13535025" y="0"/>
+          <a:ext cx="0" cy="15763875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25070A6A-805F-4298-A422-5A7C1E10F999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19383375" y="0"/>
+          <a:ext cx="0" cy="10096500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -721,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96412C76-B086-496E-A2E3-80FB116F05D0}">
-  <dimension ref="B2:O40"/>
+  <dimension ref="A2:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C34" sqref="C34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -732,502 +1260,596 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
+    <row r="2" spans="1:21">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="2:15">
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:21">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="G5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="G5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="32"/>
+      <c r="R5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="32"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3">
         <v>48.38</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="8" t="s">
+      <c r="D6" s="28"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
+      <c r="R6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="9"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3">
-        <v>12.61</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="8" t="s">
+        <f>'Financial Model'!U22</f>
+        <v>12.138</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
+      <c r="R7" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="21">
         <f>C6*C7</f>
-        <v>610.07180000000005</v>
-      </c>
-      <c r="D8" s="9"/>
+        <v>587.23644000000002</v>
+      </c>
+      <c r="D8" s="28"/>
       <c r="E8" s="3"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="8" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="9"/>
+      <c r="R8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="9"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="21">
+        <f>'Financial Model'!U77</f>
+        <v>32.113</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="8" t="s">
+      <c r="G9" s="19"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="9"/>
+      <c r="R9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="21">
+        <f>'Financial Model'!U78</f>
+        <v>89.387999999999991</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="8" t="s">
+      <c r="G10" s="19"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="9"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="21">
         <f>C9-C10</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="9"/>
+        <v>-57.274999999999991</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="10" t="s">
+      <c r="G11" s="19"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="9"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="22">
         <f>C8-C11</f>
-        <v>610.07180000000005</v>
-      </c>
-      <c r="D12" s="11"/>
+        <v>644.51143999999999</v>
+      </c>
+      <c r="D12" s="29"/>
       <c r="E12" s="3"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
-    </row>
-    <row r="13" spans="2:15">
+      <c r="G12" s="19"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="9"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
-    </row>
-    <row r="14" spans="2:15">
+      <c r="G13" s="19"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="9"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="12"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="5" t="s">
+      <c r="G14" s="19"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="B15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="3"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="12" t="s">
+      <c r="G15" s="19"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="12" t="s">
+      <c r="C16" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="12" t="s">
+      <c r="C17" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="B18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="14"/>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="15" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="G20" s="19"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="G21" s="19"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="B22" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="G20" s="29"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="14"/>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="G21" s="29"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="B23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="14"/>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="B23" s="23" t="s">
+      <c r="C23" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="B24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="14"/>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="23" t="s">
+      <c r="C24" s="33">
+        <v>1924</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="B25" s="15"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="B26" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="14"/>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="B25" s="23"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="14"/>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="B26" s="23" t="s">
+      <c r="C26" s="62">
+        <f>'Financial Model'!U38</f>
+        <v>1404</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="B27" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="14"/>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="B27" s="23" t="s">
+      <c r="C27" s="63">
+        <f>'Financial Model'!U51</f>
+        <v>563.49</v>
+      </c>
+      <c r="D27" s="64"/>
+      <c r="E27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="B28" s="15"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="B29" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="14"/>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="B28" s="23"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="14"/>
-    </row>
-    <row r="29" spans="2:15">
-      <c r="B29" s="23" t="s">
+      <c r="C29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="65">
+        <f>'Financial Model'!U3</f>
+        <v>37591</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="B30" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="14"/>
-    </row>
-    <row r="30" spans="2:15">
-      <c r="B30" s="24" t="s">
+      <c r="C30" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="67"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="12"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="17"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="27" t="s">
+      <c r="C34" s="68">
+        <f>C6/'Financial Model'!U75</f>
+        <v>1.0498682203942842</v>
+      </c>
+      <c r="D34" s="69"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="27" t="s">
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="27" t="s">
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="27" t="s">
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="27" t="s">
+      <c r="C38" s="33"/>
+      <c r="D38" s="34"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="34"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="28"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="C34:D34"/>
@@ -1241,26 +1863,1717 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C30:D30" r:id="rId1" display="Link" xr:uid="{9FF57519-0B0C-4432-B9C7-9CEE6C3FEDFD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDA8C1E-DE13-4380-A4BA-C34811881AF9}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:AM94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="Q89" sqref="A89:XFD89"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="4.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="9.140625" style="4"/>
+    <col min="17" max="17" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="4"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:39" s="27" customFormat="1">
+      <c r="O1" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ1" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK1" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL1" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM1" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="2:39" s="39" customFormat="1">
+      <c r="B2" s="38"/>
+      <c r="O2" s="41">
+        <v>44226</v>
+      </c>
+      <c r="Q2" s="41">
+        <v>44499</v>
+      </c>
+      <c r="S2" s="41">
+        <v>44590</v>
+      </c>
+      <c r="T2" s="41">
+        <v>44772</v>
+      </c>
+      <c r="U2" s="41">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="3" spans="2:39" s="39" customFormat="1">
+      <c r="B3" s="38"/>
+      <c r="U3" s="40">
+        <v>37591</v>
+      </c>
+    </row>
+    <row r="4" spans="2:39" s="48" customFormat="1">
+      <c r="B4" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" s="48">
+        <v>379.92700000000002</v>
+      </c>
+      <c r="U4" s="48">
+        <v>380.61900000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:39" s="48" customFormat="1">
+      <c r="B5" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="48">
+        <v>119.791</v>
+      </c>
+      <c r="U5" s="48">
+        <v>104.809</v>
+      </c>
+    </row>
+    <row r="6" spans="2:39" s="48" customFormat="1">
+      <c r="B6" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="48">
+        <v>66.834999999999994</v>
+      </c>
+      <c r="U6" s="48">
+        <v>79.614000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:39" s="48" customFormat="1">
+      <c r="B7" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="48">
+        <v>33.993000000000002</v>
+      </c>
+      <c r="U7" s="48">
+        <v>38.746000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:39" s="45" customFormat="1">
+      <c r="B8" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="45">
+        <f>SUM(Q4:Q7)</f>
+        <v>600.54600000000005</v>
+      </c>
+      <c r="U8" s="45">
+        <f>SUM(U4:U7)</f>
+        <v>603.78800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:39" s="44" customFormat="1">
+      <c r="B9" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="44">
+        <v>305.34500000000003</v>
+      </c>
+      <c r="U9" s="44">
+        <v>309.98099999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:39" s="45" customFormat="1">
+      <c r="B10" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="45">
+        <f>Q8-Q9</f>
+        <v>295.20100000000002</v>
+      </c>
+      <c r="U10" s="45">
+        <f>U8-U9</f>
+        <v>293.80700000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:39" s="44" customFormat="1">
+      <c r="B11" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="44">
+        <v>251.131</v>
+      </c>
+      <c r="U11" s="44">
+        <v>267.73399999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:39" s="44" customFormat="1">
+      <c r="B12" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="44">
+        <v>0.314</v>
+      </c>
+      <c r="U12" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:39" s="45" customFormat="1">
+      <c r="B13" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="45">
+        <f>Q10-Q11-Q12</f>
+        <v>43.756000000000022</v>
+      </c>
+      <c r="U13" s="45">
+        <f>U10-U11-U12</f>
+        <v>26.073000000000036</v>
+      </c>
+    </row>
+    <row r="14" spans="2:39" s="44" customFormat="1">
+      <c r="B14" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="44">
+        <v>5.5E-2</v>
+      </c>
+      <c r="U14" s="44">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="2:39" s="44" customFormat="1">
+      <c r="B15" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q15" s="44">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="U15" s="44">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:39" s="44" customFormat="1">
+      <c r="B16" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" s="44">
+        <f>Q13-Q14-Q15</f>
+        <v>43.116000000000021</v>
+      </c>
+      <c r="U16" s="44">
+        <f>U13-U14-U15</f>
+        <v>25.117000000000036</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" s="44" customFormat="1">
+      <c r="B17" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="44">
+        <v>10.135</v>
+      </c>
+      <c r="U17" s="44">
+        <v>4.6929999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" s="44" customFormat="1">
+      <c r="B18" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q18" s="44">
+        <f>Q16-Q17</f>
+        <v>32.981000000000023</v>
+      </c>
+      <c r="U18" s="44">
+        <f>U16-U17</f>
+        <v>20.424000000000035</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" s="44" customFormat="1">
+      <c r="B19" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q19" s="44">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="U19" s="44">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" s="45" customFormat="1">
+      <c r="B20" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q20" s="45">
+        <f>Q18-Q19</f>
+        <v>32.895000000000024</v>
+      </c>
+      <c r="U20" s="45">
+        <f>U18-U19</f>
+        <v>20.376000000000037</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" s="43" customFormat="1">
+      <c r="B21" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="43">
+        <f>Q20/Q22</f>
+        <v>2.2980997624703106</v>
+      </c>
+      <c r="U21" s="43">
+        <f>U20/U22</f>
+        <v>1.6786950074147335</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" s="44" customFormat="1">
+      <c r="B22" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="44">
+        <v>14.314</v>
+      </c>
+      <c r="U22" s="44">
+        <v>12.138</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" s="42" customFormat="1">
+      <c r="B24" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="U24" s="47">
+        <f>U8/Q8-1</f>
+        <v>5.3984207704320664E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" s="50" customFormat="1">
+      <c r="B25" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="U25" s="51">
+        <f>U4/Q4-1</f>
+        <v>1.821402532591776E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" s="50" customFormat="1">
+      <c r="B26" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="U26" s="51">
+        <f t="shared" ref="U26:U28" si="0">U5/Q5-1</f>
+        <v>-0.12506782646442549</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" s="50" customFormat="1">
+      <c r="B27" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="U27" s="51">
+        <f t="shared" si="0"/>
+        <v>0.19120221440861851</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" s="50" customFormat="1">
+      <c r="B28" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="U28" s="51">
+        <f t="shared" si="0"/>
+        <v>0.13982290471567671</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" s="42" customFormat="1">
+      <c r="B29" s="42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21">
+      <c r="B31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q31" s="46">
+        <f>Q10/Q8</f>
+        <v>0.49155435220615906</v>
+      </c>
+      <c r="U31" s="46">
+        <f>U10/U8</f>
+        <v>0.48660622602635362</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21">
+      <c r="B32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q32" s="46">
+        <f>Q13/Q8</f>
+        <v>7.2860363735667233E-2</v>
+      </c>
+      <c r="U32" s="46">
+        <f>U13/U8</f>
+        <v>4.3182375270790468E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21">
+      <c r="B33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q33" s="46">
+        <f>Q20/Q8</f>
+        <v>5.4775154609305571E-2</v>
+      </c>
+      <c r="U33" s="46">
+        <f>U20/U8</f>
+        <v>3.3746944291705099E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21">
+      <c r="B34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q34" s="46">
+        <f>Q17/Q16</f>
+        <v>0.23506354949438713</v>
+      </c>
+      <c r="U34" s="46">
+        <f>U17/U16</f>
+        <v>0.18684556276625364</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21">
+      <c r="B37" s="52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" s="42" customFormat="1">
+      <c r="B38" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="54">
+        <f t="shared" ref="C38:U38" si="1">SUM(C39:C41)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="54">
+        <f t="shared" si="1"/>
+        <v>1460</v>
+      </c>
+      <c r="P38" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="54">
+        <f t="shared" si="1"/>
+        <v>1425</v>
+      </c>
+      <c r="T38" s="54">
+        <f t="shared" si="1"/>
+        <v>1412</v>
+      </c>
+      <c r="U38" s="54">
+        <f t="shared" si="1"/>
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21">
+      <c r="B39" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55">
+        <v>1159</v>
+      </c>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="55">
+        <v>1135</v>
+      </c>
+      <c r="T39" s="55">
+        <v>1131</v>
+      </c>
+      <c r="U39" s="55">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21">
+      <c r="B40" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55">
+        <v>123</v>
+      </c>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55">
+        <v>123</v>
+      </c>
+      <c r="T40" s="55">
+        <v>122</v>
+      </c>
+      <c r="U40" s="55">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21">
+      <c r="B41" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55">
+        <v>178</v>
+      </c>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55">
+        <v>167</v>
+      </c>
+      <c r="T41" s="55">
+        <v>159</v>
+      </c>
+      <c r="U41" s="55">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" s="56" customFormat="1">
+      <c r="B43" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="S43" s="58">
+        <f>S38-O38</f>
+        <v>-35</v>
+      </c>
+      <c r="U43" s="58">
+        <f>U38-Q38</f>
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" s="57" customFormat="1">
+      <c r="B44" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="U44" s="59">
+        <f>U38-T38</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21">
+      <c r="B48" s="52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" s="42" customFormat="1">
+      <c r="B49" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="45">
+        <v>282.76400000000001</v>
+      </c>
+      <c r="U49" s="45">
+        <v>32.113</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21">
+      <c r="B50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q50" s="44">
+        <v>36.991</v>
+      </c>
+      <c r="U50" s="44">
+        <v>48.67</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" s="42" customFormat="1">
+      <c r="B51" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q51" s="45">
+        <v>339.19799999999998</v>
+      </c>
+      <c r="U51" s="45">
+        <v>563.49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21">
+      <c r="B52" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q52" s="44">
+        <v>85.475999999999999</v>
+      </c>
+      <c r="U52" s="44">
+        <v>37.575000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21">
+      <c r="B53" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" ref="C53:T53" si="2">SUM(C49:C52)</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="44">
+        <f t="shared" si="2"/>
+        <v>744.42899999999997</v>
+      </c>
+      <c r="R53" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="44">
+        <f>SUM(U49:U52)</f>
+        <v>681.84800000000007</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21">
+      <c r="B54" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q54" s="44">
+        <v>207.489</v>
+      </c>
+      <c r="U54" s="44">
+        <v>221.20699999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21">
+      <c r="B55" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q55" s="44">
+        <v>573.84199999999998</v>
+      </c>
+      <c r="U55" s="44">
+        <v>483.40300000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21">
+      <c r="B56" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q56" s="44">
+        <v>69.456000000000003</v>
+      </c>
+      <c r="U56" s="44">
+        <v>64.111000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21">
+      <c r="B57" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q57" s="44">
+        <v>0</v>
+      </c>
+      <c r="U57" s="44">
+        <v>52.319000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21">
+      <c r="B58" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q58" s="44">
+        <v>21.593</v>
+      </c>
+      <c r="U58" s="44">
+        <v>34.104999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21">
+      <c r="B59" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="4">
+        <f t="shared" ref="C59:T59" si="3">C53+SUM(C54:C58)</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="44">
+        <f t="shared" si="3"/>
+        <v>1616.809</v>
+      </c>
+      <c r="R59" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S59" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U59" s="44">
+        <f>U53+SUM(U54:U58)</f>
+        <v>1536.9929999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21">
+      <c r="Q60" s="44"/>
+      <c r="U60" s="44"/>
+    </row>
+    <row r="61" spans="2:21">
+      <c r="B61" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q61" s="44">
+        <v>196.024</v>
+      </c>
+      <c r="U61" s="44">
+        <v>223.404</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" s="42" customFormat="1">
+      <c r="B62" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q62" s="45">
+        <v>0</v>
+      </c>
+      <c r="U62" s="45">
+        <v>3.484</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21">
+      <c r="B63" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q63" s="44">
+        <v>144.453</v>
+      </c>
+      <c r="U63" s="44">
+        <v>136.29400000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21">
+      <c r="B64" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q64" s="44">
+        <v>133.56899999999999</v>
+      </c>
+      <c r="U64" s="44">
+        <v>82.192999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21">
+      <c r="B65" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="4">
+        <f t="shared" ref="C65:T65" si="4">SUM(C61:C64)</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="44">
+        <f t="shared" si="4"/>
+        <v>474.04599999999994</v>
+      </c>
+      <c r="R65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="44">
+        <f>SUM(U61:U64)</f>
+        <v>445.375</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" s="42" customFormat="1">
+      <c r="B66" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q66" s="45">
+        <v>15.61</v>
+      </c>
+      <c r="U66" s="45">
+        <v>85.903999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21">
+      <c r="B67" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q67" s="44">
+        <v>490.33</v>
+      </c>
+      <c r="U67" s="44">
+        <v>413.096</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21">
+      <c r="B68" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q68" s="44">
+        <v>44.399000000000001</v>
+      </c>
+      <c r="U68" s="44">
+        <v>33.274999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21">
+      <c r="B69" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="4">
+        <f t="shared" ref="C69:T69" si="5">C65+SUM(C66:C68)</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="44">
+        <f t="shared" si="5"/>
+        <v>1024.3849999999998</v>
+      </c>
+      <c r="R69" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S69" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="44">
+        <f>U65+SUM(U66:U68)</f>
+        <v>977.65</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21">
+      <c r="Q70" s="44"/>
+      <c r="U70" s="44"/>
+    </row>
+    <row r="71" spans="2:21">
+      <c r="B71" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q71" s="44">
+        <v>592.42399999999998</v>
+      </c>
+      <c r="U71" s="44">
+        <v>559.34299999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21">
+      <c r="B72" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="4">
+        <f t="shared" ref="C72:T72" si="6">C71+C69</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="44">
+        <f t="shared" si="6"/>
+        <v>1616.8089999999997</v>
+      </c>
+      <c r="R72" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T72" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="44">
+        <f>U71+U69</f>
+        <v>1536.9929999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21">
+      <c r="B74" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="44">
+        <f t="shared" ref="C74:U74" si="7">C59-C69</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F74" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="44">
+        <f t="shared" si="7"/>
+        <v>592.42400000000021</v>
+      </c>
+      <c r="R74" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U74" s="44">
+        <f>U59-U69</f>
+        <v>559.34299999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21">
+      <c r="B75" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q75" s="4">
+        <f>Q74/Q22</f>
+        <v>41.387732290065685</v>
+      </c>
+      <c r="U75" s="4">
+        <f>U74/U22</f>
+        <v>46.081973966057006</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21">
+      <c r="B77" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="44">
+        <f t="shared" ref="C77:U77" si="8">C49</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="44">
+        <f t="shared" si="8"/>
+        <v>282.76400000000001</v>
+      </c>
+      <c r="R77" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S77" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U77" s="44">
+        <f>U49</f>
+        <v>32.113</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21">
+      <c r="B78" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="44">
+        <f t="shared" ref="C78:U78" si="9">C62+C66</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O78" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P78" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="44">
+        <f t="shared" si="9"/>
+        <v>15.61</v>
+      </c>
+      <c r="R78" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S78" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T78" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U78" s="44">
+        <f>U62+U66</f>
+        <v>89.387999999999991</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21">
+      <c r="B79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="44">
+        <f t="shared" ref="C79:T79" si="10">C77-C78</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F79" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O79" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="44">
+        <f t="shared" si="10"/>
+        <v>267.154</v>
+      </c>
+      <c r="R79" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S79" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T79" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U79" s="44">
+        <f>U77-U78</f>
+        <v>-57.274999999999991</v>
+      </c>
+    </row>
+    <row r="81" spans="2:21">
+      <c r="B81" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="U81" s="46">
+        <f>U51/Q51-1</f>
+        <v>0.66124210638034442</v>
+      </c>
+    </row>
+    <row r="82" spans="2:21">
+      <c r="B82" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="2:21">
+      <c r="B83" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="2:21">
+      <c r="B85" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>60.59</v>
+      </c>
+      <c r="S85" s="4">
+        <v>64.33</v>
+      </c>
+      <c r="T85" s="4">
+        <v>56.05</v>
+      </c>
+      <c r="U85" s="4">
+        <v>47.82</v>
+      </c>
+    </row>
+    <row r="86" spans="2:21">
+      <c r="B86" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q86" s="44">
+        <f>Q85*Q22</f>
+        <v>867.28526000000011</v>
+      </c>
+      <c r="U86" s="44">
+        <f>U85*U22</f>
+        <v>580.43916000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="2:21">
+      <c r="B87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q87" s="44">
+        <f>Q86-Q79</f>
+        <v>600.13126000000011</v>
+      </c>
+      <c r="U87" s="44">
+        <f>U86-U79</f>
+        <v>637.71415999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="2:21" s="61" customFormat="1">
+      <c r="B89" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q89" s="61">
+        <f>Q85/Q75</f>
+        <v>1.4639603729761113</v>
+      </c>
+      <c r="U89" s="61">
+        <f>U85/U75</f>
+        <v>1.0377159631925315</v>
+      </c>
+    </row>
+    <row r="90" spans="2:21">
+      <c r="B90" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="2:21">
+      <c r="B91" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="2:21">
+      <c r="B92" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="2:21">
+      <c r="B93" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="2:21">
+      <c r="B94" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" r:id="rId1" xr:uid="{60A3BD83-6E80-4D7D-9202-B959033B5516}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="U8" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/$GCO.xlsx
+++ b/$GCO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF91B14-5046-420D-A907-CFE388B95769}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2587B779-0067-4BC6-8543-3010BF98A89F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{CA5C391E-FF9C-4D76-A2B2-05E4025102BD}"/>
   </bookViews>
@@ -1252,7 +1252,7 @@
   <dimension ref="A2:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:D34"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1300,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>48.38</v>
+        <v>47.76</v>
       </c>
       <c r="D6" s="28"/>
       <c r="G6" s="19"/>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="C8" s="21">
         <f>C6*C7</f>
-        <v>587.23644000000002</v>
+        <v>579.71087999999997</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="3"/>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C12" s="22">
         <f>C8-C11</f>
-        <v>644.51143999999999</v>
+        <v>636.98587999999995</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="3"/>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="C34" s="68">
         <f>C6/'Financial Model'!U75</f>
-        <v>1.0498682203942842</v>
+        <v>1.0364139356352007</v>
       </c>
       <c r="D34" s="69"/>
     </row>
@@ -1885,7 +1885,7 @@
   <dimension ref="B1:AM94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="Q89" sqref="A89:XFD89"/>

--- a/$GCO.xlsx
+++ b/$GCO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2587B779-0067-4BC6-8543-3010BF98A89F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DF3E04-7F14-47C4-89C4-8F0F43E17EA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{CA5C391E-FF9C-4D76-A2B2-05E4025102BD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{CA5C391E-FF9C-4D76-A2B2-05E4025102BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="141">
   <si>
     <t>$GCO</t>
   </si>
@@ -355,9 +355,6 @@
     <t>Current Long-Term Debt</t>
   </si>
   <si>
-    <t>Current Operating Lease Liabilities</t>
-  </si>
-  <si>
     <t>OCL</t>
   </si>
   <si>
@@ -398,15 +395,70 @@
   </si>
   <si>
     <t>Share Price</t>
+  </si>
+  <si>
+    <t>FQ421</t>
+  </si>
+  <si>
+    <t>FQ420</t>
+  </si>
+  <si>
+    <t>FQ419</t>
+  </si>
+  <si>
+    <t>FQ119</t>
+  </si>
+  <si>
+    <t>FQ219</t>
+  </si>
+  <si>
+    <t>FQ319</t>
+  </si>
+  <si>
+    <t>FQ120</t>
+  </si>
+  <si>
+    <t>FQ220</t>
+  </si>
+  <si>
+    <t>FQ320</t>
+  </si>
+  <si>
+    <t>FQ118</t>
+  </si>
+  <si>
+    <t>FQ218</t>
+  </si>
+  <si>
+    <t>FQ318</t>
+  </si>
+  <si>
+    <t>FQ418</t>
+  </si>
+  <si>
+    <t>Current Operating Lease</t>
+  </si>
+  <si>
+    <t>Cashflow</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0\x"/>
+    <numFmt numFmtId="165" formatCode="0.0\x"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -624,7 +676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -679,27 +731,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -740,7 +771,43 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -750,21 +817,8 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -851,16 +905,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -875,8 +929,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13535025" y="0"/>
-          <a:ext cx="0" cy="15763875"/>
+          <a:off x="14144625" y="0"/>
+          <a:ext cx="0" cy="18849975"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -901,16 +955,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -925,8 +979,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19383375" y="0"/>
-          <a:ext cx="0" cy="10096500"/>
+          <a:off x="20231100" y="0"/>
+          <a:ext cx="0" cy="18726150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1251,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96412C76-B086-496E-A2E3-80FB116F05D0}">
   <dimension ref="A2:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1272,28 +1326,28 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="G5" s="30" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="G5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
-      <c r="R5" s="30" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="60"/>
+      <c r="R5" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="32"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="60"/>
     </row>
     <row r="6" spans="1:21">
       <c r="B6" s="5" t="s">
@@ -1313,7 +1367,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="9"/>
       <c r="R6" s="23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -1324,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3">
-        <f>'Financial Model'!U22</f>
+        <f>'Financial Model'!V22</f>
         <v>12.138</v>
       </c>
       <c r="D7" s="28" t="s">
@@ -1340,7 +1394,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="9"/>
       <c r="R7" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
@@ -1366,7 +1420,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="9"/>
       <c r="R8" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
@@ -1377,7 +1431,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="21">
-        <f>'Financial Model'!U77</f>
+        <f>'Financial Model'!V77</f>
         <v>32.113</v>
       </c>
       <c r="D9" s="28" t="s">
@@ -1394,7 +1448,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="9"/>
       <c r="R9" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -1405,7 +1459,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="21">
-        <f>'Financial Model'!U78</f>
+        <f>'Financial Model'!V78</f>
         <v>89.387999999999991</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -1511,11 +1565,11 @@
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="3"/>
       <c r="G15" s="19"/>
       <c r="H15" s="8"/>
@@ -1534,10 +1588,10 @@
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="62"/>
       <c r="G16" s="19"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1552,10 +1606,10 @@
       <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="62"/>
       <c r="G17" s="19"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1570,8 +1624,8 @@
       <c r="B18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
       <c r="G18" s="19"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1589,10 +1643,10 @@
       <c r="B19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="36"/>
+      <c r="D19" s="57"/>
       <c r="G19" s="19"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -1626,11 +1680,11 @@
       <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
       <c r="G22" s="19"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -1645,10 +1699,10 @@
       <c r="B23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="62"/>
       <c r="G23" s="19"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -1663,10 +1717,10 @@
       <c r="B24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="61">
         <v>1924</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="62"/>
       <c r="G24" s="19"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1679,8 +1733,8 @@
     </row>
     <row r="25" spans="1:15">
       <c r="B25" s="15"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
       <c r="G25" s="19"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -1695,11 +1749,11 @@
       <c r="B26" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="62">
-        <f>'Financial Model'!U38</f>
+      <c r="C26" s="67">
+        <f>'Financial Model'!V38</f>
         <v>1404</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="1" t="s">
         <v>57</v>
       </c>
@@ -1717,11 +1771,11 @@
       <c r="B27" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="63">
-        <f>'Financial Model'!U51</f>
+      <c r="C27" s="68">
+        <f>'Financial Model'!V51</f>
         <v>563.49</v>
       </c>
-      <c r="D27" s="64"/>
+      <c r="D27" s="69"/>
       <c r="E27" s="1" t="s">
         <v>57</v>
       </c>
@@ -1737,8 +1791,8 @@
     </row>
     <row r="28" spans="1:15">
       <c r="B28" s="15"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
       <c r="G28" s="19"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -1756,8 +1810,8 @@
       <c r="C29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="65">
-        <f>'Financial Model'!U3</f>
+      <c r="D29" s="55">
+        <f>'Financial Model'!V3</f>
         <v>37591</v>
       </c>
       <c r="G29" s="19"/>
@@ -1774,10 +1828,10 @@
       <c r="B30" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="67"/>
+      <c r="D30" s="64"/>
       <c r="G30" s="20"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -1789,64 +1843,84 @@
       <c r="O30" s="12"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="68">
-        <f>C6/'Financial Model'!U75</f>
+      <c r="C34" s="65">
+        <f>C6/'Financial Model'!V75</f>
         <v>1.0364139356352007</v>
       </c>
-      <c r="D34" s="69"/>
+      <c r="D34" s="66"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="34"/>
+      <c r="C35" s="65">
+        <f>C8/SUM('Financial Model'!S8:V8)</f>
+        <v>0.24280799219946317</v>
+      </c>
+      <c r="D35" s="66"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="34"/>
+      <c r="C36" s="65">
+        <f>C12/SUM('Financial Model'!S8:V8)</f>
+        <v>0.26679723965540925</v>
+      </c>
+      <c r="D36" s="66"/>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="34"/>
+      <c r="C37" s="65">
+        <f>C6/SUM('Financial Model'!S21:V21)</f>
+        <v>6.6517157789899475</v>
+      </c>
+      <c r="D37" s="66"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="34"/>
+      <c r="C38" s="65">
+        <f>C12/SUM('Financial Model'!S20:V20)</f>
+        <v>6.6976413685782017</v>
+      </c>
+      <c r="D38" s="66"/>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="34"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="62"/>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="18"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="C28:D28"/>
@@ -1863,14 +1937,6 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C30:D30" r:id="rId1" display="Link" xr:uid="{9FF57519-0B0C-4432-B9C7-9CEE6C3FEDFD}"/>
@@ -1882,1698 +1948,3309 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDA8C1E-DE13-4380-A4BA-C34811881AF9}">
-  <dimension ref="B1:AM94"/>
+  <dimension ref="B1:AN106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q89" sqref="A89:XFD89"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="9.140625" style="4"/>
-    <col min="17" max="17" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="17" width="9.140625" style="4"/>
+    <col min="18" max="18" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" s="27" customFormat="1">
+    <row r="1" spans="2:40" s="27" customFormat="1">
+      <c r="C1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>124</v>
+      </c>
       <c r="O1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="S1" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="T1" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="U1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="V1" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="W1" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="X1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AB1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AC1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AD1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AF1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AG1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AH1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AI1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="27" t="s">
+      <c r="AJ1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="AK1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="AK1" s="27" t="s">
+      <c r="AL1" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AM1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="27" t="s">
+      <c r="AN1" s="27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="2:39" s="39" customFormat="1">
-      <c r="B2" s="38"/>
-      <c r="O2" s="41">
+    <row r="2" spans="2:40" s="32" customFormat="1">
+      <c r="B2" s="31"/>
+      <c r="O2" s="34">
         <v>44226</v>
       </c>
-      <c r="Q2" s="41">
+      <c r="P2" s="34">
+        <v>44317</v>
+      </c>
+      <c r="Q2" s="34">
+        <v>44408</v>
+      </c>
+      <c r="R2" s="34">
         <v>44499</v>
       </c>
-      <c r="S2" s="41">
+      <c r="S2" s="34">
         <v>44590</v>
       </c>
-      <c r="T2" s="41">
+      <c r="T2" s="34">
+        <v>44681</v>
+      </c>
+      <c r="U2" s="34">
         <v>44772</v>
       </c>
-      <c r="U2" s="41">
+      <c r="V2" s="34">
         <v>44863</v>
       </c>
-    </row>
-    <row r="3" spans="2:39" s="39" customFormat="1">
-      <c r="B3" s="38"/>
-      <c r="U3" s="40">
+      <c r="AE2" s="34">
+        <f>S2</f>
+        <v>44590</v>
+      </c>
+    </row>
+    <row r="3" spans="2:40" s="32" customFormat="1">
+      <c r="B3" s="31"/>
+      <c r="S3" s="33">
+        <v>40238</v>
+      </c>
+      <c r="T3" s="33">
+        <v>46143</v>
+      </c>
+      <c r="U3" s="33">
+        <v>37135</v>
+      </c>
+      <c r="V3" s="33">
         <v>37591</v>
       </c>
-    </row>
-    <row r="4" spans="2:39" s="48" customFormat="1">
-      <c r="B4" s="60" t="s">
+      <c r="AE3" s="33">
+        <f>S3</f>
+        <v>40238</v>
+      </c>
+    </row>
+    <row r="4" spans="2:40" s="41" customFormat="1">
+      <c r="B4" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="48">
+      <c r="O4" s="41">
+        <v>464.71600000000001</v>
+      </c>
+      <c r="P4" s="41">
+        <v>376.548</v>
+      </c>
+      <c r="Q4" s="41">
+        <v>346.27499999999998</v>
+      </c>
+      <c r="R4" s="41">
         <v>379.92700000000002</v>
       </c>
-      <c r="U4" s="48">
+      <c r="S4" s="41">
+        <v>473.72500000000002</v>
+      </c>
+      <c r="T4" s="41">
+        <v>314.44499999999999</v>
+      </c>
+      <c r="U4" s="41">
+        <v>321.33199999999999</v>
+      </c>
+      <c r="V4" s="41">
         <v>380.61900000000003</v>
       </c>
-    </row>
-    <row r="5" spans="2:39" s="48" customFormat="1">
-      <c r="B5" s="60" t="s">
+      <c r="AE4" s="41">
+        <f>SUM(P4:S4)</f>
+        <v>1576.4749999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:40" s="41" customFormat="1">
+      <c r="B5" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="Q5" s="48">
+      <c r="O5" s="41">
+        <v>97.022999999999996</v>
+      </c>
+      <c r="P5" s="41">
+        <v>68.710999999999999</v>
+      </c>
+      <c r="Q5" s="41">
+        <v>106.07899999999999</v>
+      </c>
+      <c r="R5" s="41">
         <v>119.791</v>
       </c>
-      <c r="U5" s="48">
+      <c r="S5" s="41">
+        <v>128.97900000000001</v>
+      </c>
+      <c r="T5" s="41">
+        <v>88.159000000000006</v>
+      </c>
+      <c r="U5" s="41">
+        <v>101.518</v>
+      </c>
+      <c r="V5" s="41">
         <v>104.809</v>
       </c>
-    </row>
-    <row r="6" spans="2:39" s="48" customFormat="1">
-      <c r="B6" s="60" t="s">
+      <c r="AE5" s="41">
+        <f t="shared" ref="AE5:AE7" si="0">SUM(P5:S5)</f>
+        <v>423.56000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="2:40" s="41" customFormat="1">
+      <c r="B6" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="Q6" s="48">
+      <c r="O6" s="41">
+        <v>50.34</v>
+      </c>
+      <c r="P6" s="41">
+        <v>48.762</v>
+      </c>
+      <c r="Q6" s="41">
+        <v>61.158999999999999</v>
+      </c>
+      <c r="R6" s="41">
         <v>66.834999999999994</v>
       </c>
-      <c r="U6" s="48">
+      <c r="S6" s="41">
+        <v>76.099000000000004</v>
+      </c>
+      <c r="T6" s="41">
+        <v>71.016000000000005</v>
+      </c>
+      <c r="U6" s="41">
+        <v>74.817999999999998</v>
+      </c>
+      <c r="V6" s="41">
         <v>79.614000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="2:39" s="48" customFormat="1">
-      <c r="B7" s="60" t="s">
+      <c r="AE6" s="41">
+        <f t="shared" si="0"/>
+        <v>252.85499999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:40" s="41" customFormat="1">
+      <c r="B7" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="O7" s="41">
+        <v>24.722000000000001</v>
+      </c>
+      <c r="P7" s="41">
+        <v>44.673999999999999</v>
+      </c>
+      <c r="Q7" s="41">
+        <v>41.67</v>
+      </c>
+      <c r="R7" s="41">
         <v>33.993000000000002</v>
       </c>
-      <c r="U7" s="48">
+      <c r="S7" s="41">
+        <v>48.856999999999999</v>
+      </c>
+      <c r="T7" s="41">
+        <v>47.128</v>
+      </c>
+      <c r="U7" s="41">
+        <v>37.664000000000001</v>
+      </c>
+      <c r="V7" s="41">
         <v>38.746000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="2:39" s="45" customFormat="1">
-      <c r="B8" s="45" t="s">
+      <c r="AE7" s="41">
+        <f t="shared" si="0"/>
+        <v>169.19399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40" s="38" customFormat="1">
+      <c r="B8" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" s="45">
+      <c r="O8" s="38">
+        <f>SUM(O4:O7)</f>
+        <v>636.80100000000004</v>
+      </c>
+      <c r="P8" s="38">
+        <f>SUM(P4:P7)</f>
+        <v>538.69500000000005</v>
+      </c>
+      <c r="Q8" s="38">
         <f>SUM(Q4:Q7)</f>
+        <v>555.18299999999999</v>
+      </c>
+      <c r="R8" s="38">
+        <f>SUM(R4:R7)</f>
         <v>600.54600000000005</v>
       </c>
-      <c r="U8" s="45">
+      <c r="S8" s="38">
+        <f>SUM(S4:S7)</f>
+        <v>727.66000000000008</v>
+      </c>
+      <c r="T8" s="38">
+        <f>SUM(T4:T7)</f>
+        <v>520.74800000000005</v>
+      </c>
+      <c r="U8" s="38">
         <f>SUM(U4:U7)</f>
+        <v>535.33199999999999</v>
+      </c>
+      <c r="V8" s="38">
+        <f>SUM(V4:V7)</f>
         <v>603.78800000000001</v>
       </c>
-    </row>
-    <row r="9" spans="2:39" s="44" customFormat="1">
-      <c r="B9" s="44" t="s">
+      <c r="AE8" s="38">
+        <f>SUM(AE4:AE7)</f>
+        <v>2422.0839999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40" s="37" customFormat="1">
+      <c r="B9" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="O9" s="37">
+        <v>344.98200000000003</v>
+      </c>
+      <c r="P9" s="37">
+        <v>281.03300000000002</v>
+      </c>
+      <c r="Q9" s="37">
+        <v>282.661</v>
+      </c>
+      <c r="R9" s="37">
         <v>305.34500000000003</v>
       </c>
-      <c r="U9" s="44">
+      <c r="S9" s="37">
+        <v>371.90899999999999</v>
+      </c>
+      <c r="T9" s="37">
+        <v>269.30399999999997</v>
+      </c>
+      <c r="U9" s="37">
+        <v>281.01799999999997</v>
+      </c>
+      <c r="V9" s="37">
         <v>309.98099999999999</v>
       </c>
-    </row>
-    <row r="10" spans="2:39" s="45" customFormat="1">
-      <c r="B10" s="45" t="s">
+      <c r="AE9" s="37">
+        <f>SUM(P9:S9)</f>
+        <v>1240.9479999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40" s="38" customFormat="1">
+      <c r="B10" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="Q10" s="45">
+      <c r="O10" s="38">
+        <f>O8-O9</f>
+        <v>291.81900000000002</v>
+      </c>
+      <c r="P10" s="38">
+        <f>P8-P9</f>
+        <v>257.66200000000003</v>
+      </c>
+      <c r="Q10" s="38">
         <f>Q8-Q9</f>
+        <v>272.52199999999999</v>
+      </c>
+      <c r="R10" s="38">
+        <f>R8-R9</f>
         <v>295.20100000000002</v>
       </c>
-      <c r="U10" s="45">
+      <c r="S10" s="38">
+        <f>S8-S9</f>
+        <v>355.75100000000009</v>
+      </c>
+      <c r="T10" s="38">
+        <f>T8-T9</f>
+        <v>251.44400000000007</v>
+      </c>
+      <c r="U10" s="38">
         <f>U8-U9</f>
+        <v>254.31400000000002</v>
+      </c>
+      <c r="V10" s="38">
+        <f>V8-V9</f>
         <v>293.80700000000002</v>
       </c>
-    </row>
-    <row r="11" spans="2:39" s="44" customFormat="1">
-      <c r="B11" s="44" t="s">
+      <c r="AE10" s="38">
+        <f>AE8-AE9</f>
+        <v>1181.136</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40" s="37" customFormat="1">
+      <c r="B11" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="O11" s="37">
+        <v>226.55099999999999</v>
+      </c>
+      <c r="P11" s="37">
+        <v>239.465</v>
+      </c>
+      <c r="Q11" s="37">
+        <v>252.55099999999999</v>
+      </c>
+      <c r="R11" s="37">
         <v>251.131</v>
       </c>
-      <c r="U11" s="44">
+      <c r="S11" s="37">
+        <v>290.47800000000001</v>
+      </c>
+      <c r="T11" s="37">
+        <v>243.48099999999999</v>
+      </c>
+      <c r="U11" s="37">
+        <v>245.10300000000001</v>
+      </c>
+      <c r="V11" s="37">
         <v>267.73399999999998</v>
       </c>
-    </row>
-    <row r="12" spans="2:39" s="44" customFormat="1">
-      <c r="B12" s="44" t="s">
+      <c r="AE11" s="37">
+        <f t="shared" ref="AE11:AE12" si="1">SUM(P11:S11)</f>
+        <v>1033.625</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40" s="37" customFormat="1">
+      <c r="B12" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="Q12" s="44">
+      <c r="O12" s="37">
+        <v>2.7290000000000001</v>
+      </c>
+      <c r="P12" s="37">
+        <v>2.67</v>
+      </c>
+      <c r="Q12" s="37">
+        <v>7.07</v>
+      </c>
+      <c r="R12" s="37">
         <v>0.314</v>
       </c>
-      <c r="U12" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:39" s="45" customFormat="1">
-      <c r="B13" s="45" t="s">
+      <c r="S12" s="37">
+        <v>-18.11</v>
+      </c>
+      <c r="T12" s="37">
+        <v>-0.28299999999999997</v>
+      </c>
+      <c r="U12" s="37">
+        <v>0.129</v>
+      </c>
+      <c r="V12" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="37">
+        <f t="shared" si="1"/>
+        <v>-8.0559999999999992</v>
+      </c>
+    </row>
+    <row r="13" spans="2:40" s="38" customFormat="1">
+      <c r="B13" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="Q13" s="45">
+      <c r="O13" s="38">
+        <f>O10-O11-O12</f>
+        <v>62.53900000000003</v>
+      </c>
+      <c r="P13" s="38">
+        <f>P10-P11-P12</f>
+        <v>15.527000000000031</v>
+      </c>
+      <c r="Q13" s="38">
         <f>Q10-Q11-Q12</f>
+        <v>12.901000000000003</v>
+      </c>
+      <c r="R13" s="38">
+        <f>R10-R11-R12</f>
         <v>43.756000000000022</v>
       </c>
-      <c r="U13" s="45">
+      <c r="S13" s="38">
+        <f>S10-S11-S12</f>
+        <v>83.383000000000081</v>
+      </c>
+      <c r="T13" s="38">
+        <f>T10-T11-T12</f>
+        <v>8.2460000000000786</v>
+      </c>
+      <c r="U13" s="38">
         <f>U10-U11-U12</f>
+        <v>9.0820000000000132</v>
+      </c>
+      <c r="V13" s="38">
+        <f>V10-V11-V12</f>
         <v>26.073000000000036</v>
       </c>
-    </row>
-    <row r="14" spans="2:39" s="44" customFormat="1">
-      <c r="B14" s="44" t="s">
+      <c r="AE13" s="38">
+        <f>AE10-AE11-AE12</f>
+        <v>155.56699999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40" s="37" customFormat="1">
+      <c r="B14" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Q14" s="44">
+      <c r="O14" s="37">
+        <v>-0.182</v>
+      </c>
+      <c r="P14" s="37">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="Q14" s="37">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="R14" s="37">
         <v>5.5E-2</v>
       </c>
-      <c r="U14" s="44">
+      <c r="S14" s="37">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="T14" s="37">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="U14" s="37">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="15" spans="2:39" s="44" customFormat="1">
-      <c r="B15" s="44" t="s">
+      <c r="V14" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="AE14" s="37">
+        <f>SUM(P14:S14)</f>
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="15" spans="2:40" s="37" customFormat="1">
+      <c r="B15" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Q15" s="44">
+      <c r="O15" s="37">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="P15" s="37">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="Q15" s="37">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="R15" s="37">
         <v>0.58499999999999996</v>
       </c>
-      <c r="U15" s="44">
+      <c r="S15" s="37">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="T15" s="37">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="U15" s="37">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="V15" s="37">
         <v>0.90600000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="2:39" s="44" customFormat="1">
-      <c r="B16" s="44" t="s">
+      <c r="AE15" s="37">
+        <f>SUM(P15:S15)</f>
+        <v>2.448</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40" s="37" customFormat="1">
+      <c r="B16" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="Q16" s="44">
+      <c r="O16" s="37">
+        <f>O13-O14-O15</f>
+        <v>61.809000000000033</v>
+      </c>
+      <c r="P16" s="37">
+        <f>P13-P14-P15</f>
+        <v>14.837000000000032</v>
+      </c>
+      <c r="Q16" s="37">
         <f>Q13-Q14-Q15</f>
+        <v>12.228000000000005</v>
+      </c>
+      <c r="R16" s="37">
+        <f>R13-R14-R15</f>
         <v>43.116000000000021</v>
       </c>
-      <c r="U16" s="44">
+      <c r="S16" s="37">
+        <f>S13-S14-S15</f>
+        <v>82.810000000000088</v>
+      </c>
+      <c r="T16" s="37">
+        <f>T13-T14-T15</f>
+        <v>7.8510000000000781</v>
+      </c>
+      <c r="U16" s="37">
         <f>U13-U14-U15</f>
+        <v>8.6270000000000131</v>
+      </c>
+      <c r="V16" s="37">
+        <f>V13-V14-V15</f>
         <v>25.117000000000036</v>
       </c>
-    </row>
-    <row r="17" spans="2:21" s="44" customFormat="1">
-      <c r="B17" s="44" t="s">
+      <c r="AE16" s="37">
+        <f>AE13-AE14-AE15</f>
+        <v>152.99099999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31" s="37" customFormat="1">
+      <c r="B17" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="O17" s="37">
+        <v>-28.195</v>
+      </c>
+      <c r="P17" s="37">
+        <v>5.9429999999999996</v>
+      </c>
+      <c r="Q17" s="37">
+        <v>1.3540000000000001</v>
+      </c>
+      <c r="R17" s="37">
         <v>10.135</v>
       </c>
-      <c r="U17" s="44">
+      <c r="S17" s="37">
+        <v>20.611999999999998</v>
+      </c>
+      <c r="T17" s="37">
+        <v>2.8820000000000001</v>
+      </c>
+      <c r="U17" s="37">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="V17" s="37">
         <v>4.6929999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="2:21" s="44" customFormat="1">
-      <c r="B18" s="44" t="s">
+      <c r="AE17" s="37">
+        <f>SUM(P17:S17)</f>
+        <v>38.043999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31" s="37" customFormat="1">
+      <c r="B18" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="Q18" s="44">
+      <c r="O18" s="37">
+        <f>O16-O17</f>
+        <v>90.004000000000033</v>
+      </c>
+      <c r="P18" s="37">
+        <f>P16-P17</f>
+        <v>8.8940000000000321</v>
+      </c>
+      <c r="Q18" s="37">
         <f>Q16-Q17</f>
+        <v>10.874000000000006</v>
+      </c>
+      <c r="R18" s="37">
+        <f>R16-R17</f>
         <v>32.981000000000023</v>
       </c>
-      <c r="U18" s="44">
+      <c r="S18" s="37">
+        <f>S16-S17</f>
+        <v>62.198000000000093</v>
+      </c>
+      <c r="T18" s="37">
+        <f>T16-T17</f>
+        <v>4.9690000000000776</v>
+      </c>
+      <c r="U18" s="37">
         <f>U16-U17</f>
+        <v>7.6510000000000131</v>
+      </c>
+      <c r="V18" s="37">
+        <f>V16-V17</f>
         <v>20.424000000000035</v>
       </c>
-    </row>
-    <row r="19" spans="2:21" s="44" customFormat="1">
-      <c r="B19" s="44" t="s">
+      <c r="AE18" s="37">
+        <f>AE16-AE17</f>
+        <v>114.94699999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" s="37" customFormat="1">
+      <c r="B19" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="Q19" s="44">
+      <c r="O19" s="37">
+        <v>0.126</v>
+      </c>
+      <c r="P19" s="37">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="Q19" s="37">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="R19" s="37">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="U19" s="44">
+      <c r="S19" s="37">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T19" s="37">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="U19" s="37">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="V19" s="37">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="20" spans="2:21" s="45" customFormat="1">
-      <c r="B20" s="45" t="s">
+      <c r="AE19" s="37">
+        <f>SUM(P19:S19)</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" s="38" customFormat="1">
+      <c r="B20" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="Q20" s="45">
+      <c r="O20" s="38">
+        <f>O18-O19</f>
+        <v>89.878000000000029</v>
+      </c>
+      <c r="P20" s="38">
+        <f>P18-P19</f>
+        <v>8.9100000000000321</v>
+      </c>
+      <c r="Q20" s="38">
         <f>Q18-Q19</f>
+        <v>10.937000000000006</v>
+      </c>
+      <c r="R20" s="38">
+        <f>R18-R19</f>
         <v>32.895000000000024</v>
       </c>
-      <c r="U20" s="45">
+      <c r="S20" s="38">
+        <f>S18-S19</f>
+        <v>62.140000000000093</v>
+      </c>
+      <c r="T20" s="38">
+        <f>T18-T19</f>
+        <v>4.9470000000000773</v>
+      </c>
+      <c r="U20" s="38">
         <f>U18-U19</f>
+        <v>7.6430000000000131</v>
+      </c>
+      <c r="V20" s="38">
+        <f>V18-V19</f>
         <v>20.376000000000037</v>
       </c>
-    </row>
-    <row r="21" spans="2:21" s="43" customFormat="1">
-      <c r="B21" s="43" t="s">
+      <c r="AE20" s="38">
+        <f>AE18-AE19</f>
+        <v>114.88199999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" s="36" customFormat="1">
+      <c r="B21" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="Q21" s="43">
+      <c r="O21" s="36">
+        <f>O20/O22</f>
+        <v>6.2882529909746054</v>
+      </c>
+      <c r="P21" s="36">
+        <f>P20/P22</f>
+        <v>0.62364387205151761</v>
+      </c>
+      <c r="Q21" s="36">
         <f>Q20/Q22</f>
+        <v>0.76274496129437241</v>
+      </c>
+      <c r="R21" s="36">
+        <f>R20/R22</f>
         <v>2.2980997624703106</v>
       </c>
-      <c r="U21" s="43">
+      <c r="S21" s="36">
+        <f>S20/S22</f>
+        <v>4.5232202649585158</v>
+      </c>
+      <c r="T21" s="36">
+        <f>T20/T22</f>
+        <v>0.38168351207469153</v>
+      </c>
+      <c r="U21" s="36">
         <f>U20/U22</f>
+        <v>0.59650355108093445</v>
+      </c>
+      <c r="V21" s="36">
+        <f>V20/V22</f>
         <v>1.6786950074147335</v>
       </c>
-    </row>
-    <row r="22" spans="2:21" s="44" customFormat="1">
-      <c r="B22" s="44" t="s">
+      <c r="AE21" s="36">
+        <f>AE20/AE22</f>
+        <v>8.3623525986315332</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31" s="37" customFormat="1">
+      <c r="B22" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="44">
+      <c r="O22" s="37">
+        <v>14.292999999999999</v>
+      </c>
+      <c r="P22" s="37">
+        <v>14.287000000000001</v>
+      </c>
+      <c r="Q22" s="37">
+        <v>14.339</v>
+      </c>
+      <c r="R22" s="37">
         <v>14.314</v>
       </c>
-      <c r="U22" s="44">
+      <c r="S22" s="37">
+        <v>13.738</v>
+      </c>
+      <c r="T22" s="37">
+        <v>12.961</v>
+      </c>
+      <c r="U22" s="37">
+        <v>12.813000000000001</v>
+      </c>
+      <c r="V22" s="37">
         <v>12.138</v>
       </c>
-    </row>
-    <row r="24" spans="2:21" s="42" customFormat="1">
-      <c r="B24" s="42" t="s">
+      <c r="AE22" s="37">
+        <f>S22</f>
+        <v>13.738</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" s="35" customFormat="1">
+      <c r="B24" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="U24" s="47">
-        <f>U8/Q8-1</f>
+      <c r="S24" s="40">
+        <f t="shared" ref="S24:U24" si="2">S8/O8-1</f>
+        <v>0.14268036639389714</v>
+      </c>
+      <c r="T24" s="40">
+        <f t="shared" si="2"/>
+        <v>-3.3315698122314163E-2</v>
+      </c>
+      <c r="U24" s="40">
+        <f t="shared" si="2"/>
+        <v>-3.5755777824609147E-2</v>
+      </c>
+      <c r="V24" s="40">
+        <f>V8/R8-1</f>
         <v>5.3984207704320664E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:21" s="50" customFormat="1">
-      <c r="B25" s="49" t="s">
+    <row r="25" spans="2:31" s="43" customFormat="1">
+      <c r="B25" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="U25" s="51">
-        <f>U4/Q4-1</f>
+      <c r="S25" s="44">
+        <f t="shared" ref="S25:S28" si="3">S4/O4-1</f>
+        <v>1.9386033620533816E-2</v>
+      </c>
+      <c r="T25" s="44">
+        <f t="shared" ref="T25:T28" si="4">T4/P4-1</f>
+        <v>-0.16492718059848943</v>
+      </c>
+      <c r="U25" s="44">
+        <f t="shared" ref="U25:U28" si="5">U4/Q4-1</f>
+        <v>-7.2032344235073209E-2</v>
+      </c>
+      <c r="V25" s="44">
+        <f>V4/R4-1</f>
         <v>1.821402532591776E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:21" s="50" customFormat="1">
-      <c r="B26" s="49" t="s">
+    <row r="26" spans="2:31" s="43" customFormat="1">
+      <c r="B26" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="U26" s="51">
-        <f t="shared" ref="U26:U28" si="0">U5/Q5-1</f>
+      <c r="S26" s="44">
+        <f t="shared" si="3"/>
+        <v>0.3293652020654898</v>
+      </c>
+      <c r="T26" s="44">
+        <f t="shared" si="4"/>
+        <v>0.28304056119107579</v>
+      </c>
+      <c r="U26" s="44">
+        <f t="shared" si="5"/>
+        <v>-4.2996257506198177E-2</v>
+      </c>
+      <c r="V26" s="44">
+        <f t="shared" ref="V26:V28" si="6">V5/R5-1</f>
         <v>-0.12506782646442549</v>
       </c>
     </row>
-    <row r="27" spans="2:21" s="50" customFormat="1">
-      <c r="B27" s="49" t="s">
+    <row r="27" spans="2:31" s="43" customFormat="1">
+      <c r="B27" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="U27" s="51">
-        <f t="shared" si="0"/>
+      <c r="S27" s="44">
+        <f t="shared" si="3"/>
+        <v>0.51170043702820811</v>
+      </c>
+      <c r="T27" s="44">
+        <f t="shared" si="4"/>
+        <v>0.45637996800787506</v>
+      </c>
+      <c r="U27" s="44">
+        <f t="shared" si="5"/>
+        <v>0.22333589496231143</v>
+      </c>
+      <c r="V27" s="44">
+        <f t="shared" si="6"/>
         <v>0.19120221440861851</v>
       </c>
     </row>
-    <row r="28" spans="2:21" s="50" customFormat="1">
-      <c r="B28" s="49" t="s">
+    <row r="28" spans="2:31" s="43" customFormat="1">
+      <c r="B28" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="U28" s="51">
-        <f t="shared" si="0"/>
+      <c r="S28" s="44">
+        <f t="shared" si="3"/>
+        <v>0.97625596634576484</v>
+      </c>
+      <c r="T28" s="44">
+        <f t="shared" si="4"/>
+        <v>5.4931279939114397E-2</v>
+      </c>
+      <c r="U28" s="44">
+        <f t="shared" si="5"/>
+        <v>-9.6136309095272376E-2</v>
+      </c>
+      <c r="V28" s="44">
+        <f t="shared" si="6"/>
         <v>0.13982290471567671</v>
       </c>
     </row>
-    <row r="29" spans="2:21" s="42" customFormat="1">
-      <c r="B29" s="42" t="s">
+    <row r="29" spans="2:31" s="40" customFormat="1">
+      <c r="B29" s="40" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="31" spans="2:21">
+      <c r="P29" s="40">
+        <f>P8/O8-1</f>
+        <v>-0.15406068771876924</v>
+      </c>
+      <c r="Q29" s="40">
+        <f>Q8/P8-1</f>
+        <v>3.0607300977361751E-2</v>
+      </c>
+      <c r="R29" s="40">
+        <f>R8/Q8-1</f>
+        <v>8.1708193514570926E-2</v>
+      </c>
+      <c r="S29" s="40">
+        <f t="shared" ref="S29:T29" si="7">S8/R8-1</f>
+        <v>0.21166405237900188</v>
+      </c>
+      <c r="T29" s="40">
+        <f t="shared" si="7"/>
+        <v>-0.28435258224995197</v>
+      </c>
+      <c r="U29" s="40">
+        <f>U8/T8-1</f>
+        <v>2.8005868481491891E-2</v>
+      </c>
+      <c r="V29" s="40">
+        <f>V8/U8-1</f>
+        <v>0.12787578549386169</v>
+      </c>
+    </row>
+    <row r="31" spans="2:31">
       <c r="B31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Q31" s="46">
-        <f>Q10/Q8</f>
+      <c r="O31" s="39">
+        <f t="shared" ref="O31:P31" si="8">O10/O8</f>
+        <v>0.45825776027361764</v>
+      </c>
+      <c r="P31" s="39">
+        <f t="shared" ref="P31:Q31" si="9">P10/P8</f>
+        <v>0.4783077622773555</v>
+      </c>
+      <c r="Q31" s="39">
+        <f t="shared" ref="Q31:R31" si="10">Q10/Q8</f>
+        <v>0.49086877660158901</v>
+      </c>
+      <c r="R31" s="39">
+        <f>R10/R8</f>
         <v>0.49155435220615906</v>
       </c>
-      <c r="U31" s="46">
-        <f>U10/U8</f>
+      <c r="S31" s="39">
+        <f t="shared" ref="S31" si="11">S10/S8</f>
+        <v>0.48889728719456899</v>
+      </c>
+      <c r="T31" s="39">
+        <f t="shared" ref="T31:U31" si="12">T10/T8</f>
+        <v>0.48285159040457198</v>
+      </c>
+      <c r="U31" s="39">
+        <f t="shared" ref="U31:V31" si="13">U10/U8</f>
+        <v>0.47505846838970961</v>
+      </c>
+      <c r="V31" s="39">
+        <f>V10/V8</f>
         <v>0.48660622602635362</v>
       </c>
     </row>
-    <row r="32" spans="2:21">
+    <row r="32" spans="2:31">
       <c r="B32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Q32" s="46">
-        <f>Q13/Q8</f>
+      <c r="O32" s="39">
+        <f t="shared" ref="O32:P32" si="14">O13/O8</f>
+        <v>9.8208074421993724E-2</v>
+      </c>
+      <c r="P32" s="39">
+        <f t="shared" ref="P32:Q32" si="15">P13/P8</f>
+        <v>2.8823360157417519E-2</v>
+      </c>
+      <c r="Q32" s="39">
+        <f t="shared" ref="Q32:R32" si="16">Q13/Q8</f>
+        <v>2.3237382989032451E-2</v>
+      </c>
+      <c r="R32" s="39">
+        <f>R13/R8</f>
         <v>7.2860363735667233E-2</v>
       </c>
-      <c r="U32" s="46">
-        <f>U13/U8</f>
+      <c r="S32" s="39">
+        <f t="shared" ref="S32" si="17">S13/S8</f>
+        <v>0.11459060550256998</v>
+      </c>
+      <c r="T32" s="39">
+        <f t="shared" ref="T32:U32" si="18">T13/T8</f>
+        <v>1.5834914392374198E-2</v>
+      </c>
+      <c r="U32" s="39">
+        <f t="shared" ref="U32:V32" si="19">U13/U8</f>
+        <v>1.6965173014129576E-2</v>
+      </c>
+      <c r="V32" s="39">
+        <f>V13/V8</f>
         <v>4.3182375270790468E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:21">
+    <row r="33" spans="2:22">
       <c r="B33" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="Q33" s="46">
-        <f>Q20/Q8</f>
+      <c r="O33" s="39">
+        <f t="shared" ref="O33:P33" si="20">O20/O8</f>
+        <v>0.14113985373766691</v>
+      </c>
+      <c r="P33" s="39">
+        <f t="shared" ref="P33:Q33" si="21">P20/P8</f>
+        <v>1.6539971598028627E-2</v>
+      </c>
+      <c r="Q33" s="39">
+        <f t="shared" ref="Q33:R33" si="22">Q20/Q8</f>
+        <v>1.9699810693050771E-2</v>
+      </c>
+      <c r="R33" s="39">
+        <f>R20/R8</f>
         <v>5.4775154609305571E-2</v>
       </c>
-      <c r="U33" s="46">
-        <f>U20/U8</f>
+      <c r="S33" s="39">
+        <f t="shared" ref="S33" si="23">S20/S8</f>
+        <v>8.5397026083610592E-2</v>
+      </c>
+      <c r="T33" s="39">
+        <f t="shared" ref="T33:U33" si="24">T20/T8</f>
+        <v>9.4997964466499666E-3</v>
+      </c>
+      <c r="U33" s="39">
+        <f t="shared" ref="U33:V33" si="25">U20/U8</f>
+        <v>1.4277121487226643E-2</v>
+      </c>
+      <c r="V33" s="39">
+        <f>V20/V8</f>
         <v>3.3746944291705099E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:21">
+    <row r="34" spans="2:22">
       <c r="B34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Q34" s="46">
-        <f>Q17/Q16</f>
+      <c r="O34" s="39">
+        <f t="shared" ref="O34:P34" si="26">O17/O16</f>
+        <v>-0.45616334190813612</v>
+      </c>
+      <c r="P34" s="39">
+        <f t="shared" ref="P34:Q34" si="27">P17/P16</f>
+        <v>0.40055267237312037</v>
+      </c>
+      <c r="Q34" s="39">
+        <f t="shared" ref="Q34:R34" si="28">Q17/Q16</f>
+        <v>0.11072947333987565</v>
+      </c>
+      <c r="R34" s="39">
+        <f>R17/R16</f>
         <v>0.23506354949438713</v>
       </c>
-      <c r="U34" s="46">
-        <f>U17/U16</f>
+      <c r="S34" s="39">
+        <f t="shared" ref="S34" si="29">S17/S16</f>
+        <v>0.24890713681922444</v>
+      </c>
+      <c r="T34" s="39">
+        <f t="shared" ref="T34:U34" si="30">T17/T16</f>
+        <v>0.36708699528722094</v>
+      </c>
+      <c r="U34" s="39">
+        <f t="shared" ref="U34:V34" si="31">U17/U16</f>
+        <v>0.11313318650747635</v>
+      </c>
+      <c r="V34" s="39">
+        <f>V17/V16</f>
         <v>0.18684556276625364</v>
       </c>
     </row>
-    <row r="37" spans="2:21">
-      <c r="B37" s="52" t="s">
+    <row r="37" spans="2:22">
+      <c r="B37" s="45" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:21" s="42" customFormat="1">
-      <c r="B38" s="42" t="s">
+    <row r="38" spans="2:22" s="35" customFormat="1">
+      <c r="B38" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="54">
-        <f t="shared" ref="C38:U38" si="1">SUM(C39:C41)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="54">
-        <f t="shared" si="1"/>
+      <c r="C38" s="47">
+        <f t="shared" ref="C38:V38" si="32">SUM(C39:C41)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="47">
+        <f t="shared" ref="D38:E38" si="33">SUM(D39:D41)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="47">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="47">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="47">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="47">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="47">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="47">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="47">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="47">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="47">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="47">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="47">
+        <f>SUM(O39:O41)</f>
         <v>1460</v>
       </c>
-      <c r="P38" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S38" s="54">
-        <f t="shared" si="1"/>
+      <c r="P38" s="47">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="47">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="47">
+        <f t="shared" si="32"/>
+        <v>1434</v>
+      </c>
+      <c r="S38" s="47">
+        <f>SUM(S39:S41)</f>
         <v>1425</v>
       </c>
-      <c r="T38" s="54">
-        <f t="shared" si="1"/>
+      <c r="T38" s="47">
+        <f t="shared" si="32"/>
+        <v>1414</v>
+      </c>
+      <c r="U38" s="47">
+        <f t="shared" si="32"/>
         <v>1412</v>
       </c>
-      <c r="U38" s="54">
-        <f t="shared" si="1"/>
+      <c r="V38" s="47">
+        <f t="shared" si="32"/>
         <v>1404</v>
       </c>
     </row>
-    <row r="39" spans="2:21">
-      <c r="B39" s="53" t="s">
+    <row r="39" spans="2:22">
+      <c r="B39" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55">
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48">
         <v>1159</v>
       </c>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="55">
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48">
+        <v>1137</v>
+      </c>
+      <c r="S39" s="48">
         <v>1135</v>
       </c>
-      <c r="T39" s="55">
+      <c r="T39" s="4">
+        <v>1130</v>
+      </c>
+      <c r="U39" s="48">
         <v>1131</v>
       </c>
-      <c r="U39" s="55">
+      <c r="V39" s="48">
         <v>1123</v>
       </c>
     </row>
-    <row r="40" spans="2:21">
-      <c r="B40" s="53" t="s">
+    <row r="40" spans="2:22">
+      <c r="B40" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55">
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48">
         <v>123</v>
       </c>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="55">
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48">
         <v>123</v>
       </c>
-      <c r="T40" s="55">
+      <c r="S40" s="48">
+        <v>123</v>
+      </c>
+      <c r="T40" s="4">
         <v>122</v>
       </c>
-      <c r="U40" s="55">
+      <c r="U40" s="48">
         <v>122</v>
       </c>
-    </row>
-    <row r="41" spans="2:21">
-      <c r="B41" s="53" t="s">
+      <c r="V40" s="48">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22">
+      <c r="B41" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55">
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48">
         <v>178</v>
       </c>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="55">
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48">
+        <v>174</v>
+      </c>
+      <c r="S41" s="48">
         <v>167</v>
       </c>
-      <c r="T41" s="55">
+      <c r="T41" s="4">
+        <v>162</v>
+      </c>
+      <c r="U41" s="48">
         <v>159</v>
       </c>
-      <c r="U41" s="55">
+      <c r="V41" s="48">
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="2:21" s="56" customFormat="1">
-      <c r="B43" s="56" t="s">
+    <row r="43" spans="2:22" s="49" customFormat="1">
+      <c r="B43" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="S43" s="58">
+      <c r="S43" s="51">
         <f>S38-O38</f>
         <v>-35</v>
       </c>
-      <c r="U43" s="58">
-        <f>U38-Q38</f>
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" s="57" customFormat="1">
-      <c r="B44" s="57" t="s">
+      <c r="V43" s="51">
+        <f>V38-R38</f>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" s="50" customFormat="1">
+      <c r="B44" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="U44" s="59">
-        <f>U38-T38</f>
+      <c r="S44" s="52">
+        <f t="shared" ref="S44:V44" si="34">S38-R38</f>
+        <v>-9</v>
+      </c>
+      <c r="T44" s="52">
+        <f t="shared" si="34"/>
+        <v>-11</v>
+      </c>
+      <c r="U44" s="52">
+        <f t="shared" si="34"/>
+        <v>-2</v>
+      </c>
+      <c r="V44" s="52">
+        <f>V38-U38</f>
         <v>-8</v>
       </c>
     </row>
-    <row r="48" spans="2:21">
-      <c r="B48" s="52" t="s">
+    <row r="48" spans="2:22">
+      <c r="B48" s="45" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="2:21" s="42" customFormat="1">
-      <c r="B49" s="42" t="s">
+    <row r="49" spans="2:32" s="35" customFormat="1">
+      <c r="B49" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Q49" s="45">
+      <c r="O49" s="38">
+        <v>215.09100000000001</v>
+      </c>
+      <c r="P49" s="38">
+        <v>258.04399999999998</v>
+      </c>
+      <c r="Q49" s="38">
+        <v>304.03899999999999</v>
+      </c>
+      <c r="R49" s="38">
         <v>282.76400000000001</v>
       </c>
-      <c r="U49" s="45">
+      <c r="S49" s="38">
+        <v>320.52499999999998</v>
+      </c>
+      <c r="T49" s="70">
+        <v>200.62299999999999</v>
+      </c>
+      <c r="U49" s="38">
+        <v>44.939</v>
+      </c>
+      <c r="V49" s="38">
         <v>32.113</v>
       </c>
-    </row>
-    <row r="50" spans="2:21">
+      <c r="AE49" s="38">
+        <f>S49</f>
+        <v>320.52499999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32">
       <c r="B50" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Q50" s="44">
+      <c r="O50" s="37">
+        <v>31.41</v>
+      </c>
+      <c r="P50" s="37">
+        <v>45.890999999999998</v>
+      </c>
+      <c r="Q50" s="37">
+        <v>31.872</v>
+      </c>
+      <c r="R50" s="37">
         <v>36.991</v>
       </c>
-      <c r="U50" s="44">
+      <c r="S50" s="37">
+        <v>39.509</v>
+      </c>
+      <c r="T50" s="71">
+        <v>48.868000000000002</v>
+      </c>
+      <c r="U50" s="37">
+        <v>42.781999999999996</v>
+      </c>
+      <c r="V50" s="37">
         <v>48.67</v>
       </c>
-    </row>
-    <row r="51" spans="2:21" s="42" customFormat="1">
-      <c r="B51" s="42" t="s">
+      <c r="AE50" s="37">
+        <f>S50</f>
+        <v>39.509</v>
+      </c>
+    </row>
+    <row r="51" spans="2:32" s="35" customFormat="1">
+      <c r="B51" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="Q51" s="45">
+      <c r="O51" s="38">
+        <v>290.96600000000001</v>
+      </c>
+      <c r="P51" s="38">
+        <v>301.017</v>
+      </c>
+      <c r="Q51" s="38">
+        <v>326.47699999999998</v>
+      </c>
+      <c r="R51" s="38">
         <v>339.19799999999998</v>
       </c>
-      <c r="U51" s="45">
+      <c r="S51" s="38">
+        <v>278.2</v>
+      </c>
+      <c r="T51" s="70">
+        <v>401.47899999999998</v>
+      </c>
+      <c r="U51" s="38">
+        <v>507.23599999999999</v>
+      </c>
+      <c r="V51" s="38">
         <v>563.49</v>
       </c>
-    </row>
-    <row r="52" spans="2:21">
+      <c r="AE51" s="38">
+        <f>S51</f>
+        <v>278.2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:32">
       <c r="B52" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="Q52" s="44">
+      <c r="O52" s="37">
+        <v>130.12799999999999</v>
+      </c>
+      <c r="P52" s="37">
+        <v>117.467</v>
+      </c>
+      <c r="Q52" s="37">
+        <v>91.554000000000002</v>
+      </c>
+      <c r="R52" s="37">
         <v>85.475999999999999</v>
       </c>
-      <c r="U52" s="44">
+      <c r="S52" s="37">
+        <v>71.563999999999993</v>
+      </c>
+      <c r="T52" s="71">
+        <v>74.608999999999995</v>
+      </c>
+      <c r="U52" s="37">
+        <v>99.454999999999998</v>
+      </c>
+      <c r="V52" s="37">
         <v>37.575000000000003</v>
       </c>
-    </row>
-    <row r="53" spans="2:21">
+      <c r="AE52" s="37">
+        <f>S52</f>
+        <v>71.563999999999993</v>
+      </c>
+    </row>
+    <row r="53" spans="2:32">
       <c r="B53" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C53" s="4">
-        <f t="shared" ref="C53:T53" si="2">SUM(C49:C52)</f>
+        <f t="shared" ref="C53:U53" si="35">SUM(C49:C52)</f>
         <v>0</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D53:E53" si="36">SUM(D49:D52)</f>
         <v>0</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="L53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="M53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N53" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="37">
+        <f t="shared" si="35"/>
+        <v>667.59500000000003</v>
+      </c>
+      <c r="P53" s="37">
+        <f t="shared" si="35"/>
+        <v>722.41899999999998</v>
+      </c>
+      <c r="Q53" s="37">
+        <f t="shared" si="35"/>
+        <v>753.94199999999989</v>
+      </c>
+      <c r="R53" s="37">
+        <f t="shared" si="35"/>
         <v>744.42899999999997</v>
       </c>
-      <c r="R53" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S53" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T53" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U53" s="44">
-        <f>SUM(U49:U52)</f>
+      <c r="S53" s="37">
+        <f t="shared" si="35"/>
+        <v>709.79799999999989</v>
+      </c>
+      <c r="T53" s="71">
+        <f t="shared" si="35"/>
+        <v>725.57900000000006</v>
+      </c>
+      <c r="U53" s="37">
+        <f t="shared" si="35"/>
+        <v>694.41200000000003</v>
+      </c>
+      <c r="V53" s="37">
+        <f>SUM(V49:V52)</f>
         <v>681.84800000000007</v>
       </c>
-    </row>
-    <row r="54" spans="2:21">
+      <c r="AA53" s="4">
+        <f t="shared" ref="AA53:AF53" si="37">SUM(AA49:AA52)</f>
+        <v>0</v>
+      </c>
+      <c r="AB53" s="4">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="4">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AD53" s="4">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AE53" s="37">
+        <f t="shared" si="37"/>
+        <v>709.79799999999989</v>
+      </c>
+      <c r="AF53" s="4">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:32">
       <c r="B54" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="Q54" s="44">
+      <c r="O54" s="37">
+        <v>207.84200000000001</v>
+      </c>
+      <c r="P54" s="37">
+        <v>208.75899999999999</v>
+      </c>
+      <c r="Q54" s="37">
+        <v>202.71100000000001</v>
+      </c>
+      <c r="R54" s="37">
         <v>207.489</v>
       </c>
-      <c r="U54" s="44">
+      <c r="S54" s="37">
+        <v>216.30799999999999</v>
+      </c>
+      <c r="T54" s="71">
+        <v>219.42099999999999</v>
+      </c>
+      <c r="U54" s="37">
+        <v>220.74199999999999</v>
+      </c>
+      <c r="V54" s="37">
         <v>221.20699999999999</v>
       </c>
-    </row>
-    <row r="55" spans="2:21">
+      <c r="AE54" s="37">
+        <f>S54</f>
+        <v>216.30799999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:32">
       <c r="B55" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="Q55" s="44">
+      <c r="O55" s="37">
+        <v>621.72699999999998</v>
+      </c>
+      <c r="P55" s="37">
+        <v>639.57500000000005</v>
+      </c>
+      <c r="Q55" s="37">
+        <v>610.18799999999999</v>
+      </c>
+      <c r="R55" s="37">
         <v>573.84199999999998</v>
       </c>
-      <c r="U55" s="44">
+      <c r="S55" s="37">
+        <v>543.78899999999999</v>
+      </c>
+      <c r="T55" s="71">
+        <v>508.98599999999999</v>
+      </c>
+      <c r="U55" s="37">
+        <v>491.41199999999998</v>
+      </c>
+      <c r="V55" s="37">
         <v>483.40300000000002</v>
       </c>
-    </row>
-    <row r="56" spans="2:21">
+      <c r="AE55" s="37">
+        <f>S55</f>
+        <v>543.78899999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:32">
       <c r="B56" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="Q56" s="44">
+      <c r="O56" s="37">
+        <v>69.478999999999999</v>
+      </c>
+      <c r="P56" s="37">
+        <v>70.055999999999997</v>
+      </c>
+      <c r="Q56" s="37">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="R56" s="37">
         <v>69.456000000000003</v>
       </c>
-      <c r="U56" s="44">
+      <c r="S56" s="37">
+        <v>68.411000000000001</v>
+      </c>
+      <c r="T56" s="71">
+        <v>66.784999999999997</v>
+      </c>
+      <c r="U56" s="37">
+        <v>66.028999999999996</v>
+      </c>
+      <c r="V56" s="37">
         <v>64.111000000000004</v>
       </c>
-    </row>
-    <row r="57" spans="2:21">
+      <c r="AE56" s="37">
+        <f>S56</f>
+        <v>68.411000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:32">
       <c r="B57" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="Q57" s="44">
-        <v>0</v>
-      </c>
-      <c r="U57" s="44">
+      <c r="O57" s="37">
+        <v>0</v>
+      </c>
+      <c r="P57" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="37">
+        <v>0</v>
+      </c>
+      <c r="R57" s="37">
+        <v>0</v>
+      </c>
+      <c r="S57" s="37">
+        <v>0</v>
+      </c>
+      <c r="T57" s="71">
+        <v>0</v>
+      </c>
+      <c r="U57" s="37">
+        <v>0</v>
+      </c>
+      <c r="V57" s="37">
         <v>52.319000000000003</v>
       </c>
-    </row>
-    <row r="58" spans="2:21">
+      <c r="AE57" s="37">
+        <f>S57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:32">
       <c r="B58" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="Q58" s="44">
+      <c r="O58" s="37">
+        <v>20.725000000000001</v>
+      </c>
+      <c r="P58" s="37">
+        <v>21.558</v>
+      </c>
+      <c r="Q58" s="37">
+        <v>21.928999999999998</v>
+      </c>
+      <c r="R58" s="37">
         <v>21.593</v>
       </c>
-      <c r="U58" s="44">
+      <c r="S58" s="37">
+        <v>23.792999999999999</v>
+      </c>
+      <c r="T58" s="71">
+        <v>27.670999999999999</v>
+      </c>
+      <c r="U58" s="37">
+        <v>27.125</v>
+      </c>
+      <c r="V58" s="37">
         <v>34.104999999999997</v>
       </c>
-    </row>
-    <row r="59" spans="2:21">
+      <c r="AE58" s="37">
+        <f>S58</f>
+        <v>23.792999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:32">
       <c r="B59" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C59" s="4">
-        <f t="shared" ref="C59:T59" si="3">C53+SUM(C54:C58)</f>
+        <f t="shared" ref="C59:U59" si="38">C53+SUM(C54:C58)</f>
         <v>0</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D59:E59" si="39">D53+SUM(D54:D58)</f>
         <v>0</v>
       </c>
       <c r="E59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="F59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N59" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O59" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P59" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q59" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="37">
+        <f t="shared" si="38"/>
+        <v>1587.3679999999999</v>
+      </c>
+      <c r="P59" s="37">
+        <f t="shared" si="38"/>
+        <v>1662.3670000000002</v>
+      </c>
+      <c r="Q59" s="37">
+        <f t="shared" si="38"/>
+        <v>1658.62</v>
+      </c>
+      <c r="R59" s="37">
+        <f t="shared" si="38"/>
         <v>1616.809</v>
       </c>
-      <c r="R59" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S59" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T59" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U59" s="44">
-        <f>U53+SUM(U54:U58)</f>
+      <c r="S59" s="37">
+        <f t="shared" si="38"/>
+        <v>1562.0989999999999</v>
+      </c>
+      <c r="T59" s="71">
+        <f t="shared" si="38"/>
+        <v>1548.442</v>
+      </c>
+      <c r="U59" s="37">
+        <f t="shared" si="38"/>
+        <v>1499.72</v>
+      </c>
+      <c r="V59" s="37">
+        <f>V53+SUM(V54:V58)</f>
         <v>1536.9929999999999</v>
       </c>
-    </row>
-    <row r="60" spans="2:21">
-      <c r="Q60" s="44"/>
-      <c r="U60" s="44"/>
-    </row>
-    <row r="61" spans="2:21">
+      <c r="AA59" s="4">
+        <f t="shared" ref="AA59:AF59" si="40">AA53+SUM(AA54:AA58)</f>
+        <v>0</v>
+      </c>
+      <c r="AB59" s="4">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AC59" s="4">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AD59" s="4">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AE59" s="37">
+        <f t="shared" si="40"/>
+        <v>1562.0989999999999</v>
+      </c>
+      <c r="AF59" s="4">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:32">
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="71"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="AE60" s="37"/>
+    </row>
+    <row r="61" spans="2:32">
       <c r="B61" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="Q61" s="44">
+      <c r="O61" s="37">
+        <v>150.43700000000001</v>
+      </c>
+      <c r="P61" s="37">
+        <v>164.97499999999999</v>
+      </c>
+      <c r="Q61" s="37">
+        <v>186.59299999999999</v>
+      </c>
+      <c r="R61" s="37">
         <v>196.024</v>
       </c>
-      <c r="U61" s="44">
+      <c r="S61" s="37">
+        <v>152.48400000000001</v>
+      </c>
+      <c r="T61" s="71">
+        <v>243.22399999999999</v>
+      </c>
+      <c r="U61" s="37">
+        <v>226.779</v>
+      </c>
+      <c r="V61" s="37">
         <v>223.404</v>
       </c>
-    </row>
-    <row r="62" spans="2:21" s="42" customFormat="1">
-      <c r="B62" s="42" t="s">
+      <c r="AE61" s="37">
+        <f>S61</f>
+        <v>152.48400000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:32" s="35" customFormat="1">
+      <c r="B62" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="Q62" s="45">
-        <v>0</v>
-      </c>
-      <c r="U62" s="45">
+      <c r="O62" s="38">
+        <v>0</v>
+      </c>
+      <c r="P62" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="38">
+        <v>0</v>
+      </c>
+      <c r="R62" s="38">
+        <v>0</v>
+      </c>
+      <c r="S62" s="38">
+        <v>0</v>
+      </c>
+      <c r="T62" s="70">
+        <v>0</v>
+      </c>
+      <c r="U62" s="38">
+        <v>0</v>
+      </c>
+      <c r="V62" s="38">
         <v>3.484</v>
       </c>
-    </row>
-    <row r="63" spans="2:21">
+      <c r="AE62" s="38">
+        <f>S62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:32">
       <c r="B63" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O63" s="37">
+        <v>173.505</v>
+      </c>
+      <c r="P63" s="37">
+        <v>158.29499999999999</v>
+      </c>
+      <c r="Q63" s="37">
+        <v>156.56200000000001</v>
+      </c>
+      <c r="R63" s="37">
+        <v>144.453</v>
+      </c>
+      <c r="S63" s="37">
+        <v>145.08799999999999</v>
+      </c>
+      <c r="T63" s="71">
+        <v>137.77000000000001</v>
+      </c>
+      <c r="U63" s="37">
+        <v>135.571</v>
+      </c>
+      <c r="V63" s="37">
+        <v>136.29400000000001</v>
+      </c>
+      <c r="AE63" s="37">
+        <f>S63</f>
+        <v>145.08799999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:32">
+      <c r="B64" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="Q63" s="44">
-        <v>144.453</v>
-      </c>
-      <c r="U63" s="44">
-        <v>136.29400000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="2:21">
-      <c r="B64" s="4" t="s">
+      <c r="O64" s="37">
+        <v>78.991</v>
+      </c>
+      <c r="P64" s="37">
+        <v>112.648</v>
+      </c>
+      <c r="Q64" s="37">
+        <v>134.40700000000001</v>
+      </c>
+      <c r="R64" s="37">
+        <v>133.56899999999999</v>
+      </c>
+      <c r="S64" s="37">
+        <v>134.15600000000001</v>
+      </c>
+      <c r="T64" s="71">
+        <v>83.882000000000005</v>
+      </c>
+      <c r="U64" s="37">
+        <v>80.266000000000005</v>
+      </c>
+      <c r="V64" s="37">
+        <v>82.192999999999998</v>
+      </c>
+      <c r="AE64" s="37">
+        <f>S64</f>
+        <v>134.15600000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32">
+      <c r="B65" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="Q64" s="44">
-        <v>133.56899999999999</v>
-      </c>
-      <c r="U64" s="44">
-        <v>82.192999999999998</v>
-      </c>
-    </row>
-    <row r="65" spans="2:21">
-      <c r="B65" s="4" t="s">
+      <c r="C65" s="4">
+        <f t="shared" ref="C65:U65" si="41">SUM(C61:C64)</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="4">
+        <f t="shared" ref="D65:E65" si="42">SUM(D61:D64)</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="37">
+        <f t="shared" si="41"/>
+        <v>402.93299999999999</v>
+      </c>
+      <c r="P65" s="37">
+        <f t="shared" si="41"/>
+        <v>435.91800000000001</v>
+      </c>
+      <c r="Q65" s="37">
+        <f t="shared" si="41"/>
+        <v>477.56200000000001</v>
+      </c>
+      <c r="R65" s="37">
+        <f t="shared" si="41"/>
+        <v>474.04599999999994</v>
+      </c>
+      <c r="S65" s="37">
+        <f t="shared" si="41"/>
+        <v>431.72800000000001</v>
+      </c>
+      <c r="T65" s="71">
+        <f t="shared" si="41"/>
+        <v>464.87600000000003</v>
+      </c>
+      <c r="U65" s="37">
+        <f t="shared" si="41"/>
+        <v>442.61600000000004</v>
+      </c>
+      <c r="V65" s="37">
+        <f>SUM(V61:V64)</f>
+        <v>445.375</v>
+      </c>
+      <c r="AA65" s="4">
+        <f t="shared" ref="AA65:AF65" si="43">SUM(AA61:AA64)</f>
+        <v>0</v>
+      </c>
+      <c r="AB65" s="4">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AC65" s="4">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AD65" s="4">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AE65" s="37">
+        <f t="shared" si="43"/>
+        <v>431.72800000000001</v>
+      </c>
+      <c r="AF65" s="4">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" s="35" customFormat="1">
+      <c r="B66" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="4">
-        <f t="shared" ref="C65:T65" si="4">SUM(C61:C64)</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N65" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O65" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="44">
-        <f t="shared" si="4"/>
-        <v>474.04599999999994</v>
-      </c>
-      <c r="R65" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S65" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T65" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U65" s="44">
-        <f>SUM(U61:U64)</f>
-        <v>445.375</v>
-      </c>
-    </row>
-    <row r="66" spans="2:21" s="42" customFormat="1">
-      <c r="B66" s="42" t="s">
+      <c r="O66" s="38">
+        <v>32.985999999999997</v>
+      </c>
+      <c r="P66" s="38">
+        <v>44.168999999999997</v>
+      </c>
+      <c r="Q66" s="38">
+        <v>20.021999999999998</v>
+      </c>
+      <c r="R66" s="38">
+        <v>15.61</v>
+      </c>
+      <c r="S66" s="38">
+        <v>15.679</v>
+      </c>
+      <c r="T66" s="70">
+        <v>14.712</v>
+      </c>
+      <c r="U66" s="38">
+        <v>48.872</v>
+      </c>
+      <c r="V66" s="38">
+        <v>85.903999999999996</v>
+      </c>
+      <c r="AE66" s="38">
+        <f>S66</f>
+        <v>15.679</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32">
+      <c r="B67" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="Q66" s="45">
-        <v>15.61</v>
-      </c>
-      <c r="U66" s="45">
-        <v>85.903999999999996</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21">
-      <c r="B67" s="4" t="s">
+      <c r="O67" s="37">
+        <v>527.54899999999998</v>
+      </c>
+      <c r="P67" s="37">
+        <v>555.20399999999995</v>
+      </c>
+      <c r="Q67" s="37">
+        <v>524.85699999999997</v>
+      </c>
+      <c r="R67" s="37">
+        <v>490.33</v>
+      </c>
+      <c r="S67" s="37">
+        <v>471.87799999999999</v>
+      </c>
+      <c r="T67" s="71">
+        <v>430.60599999999999</v>
+      </c>
+      <c r="U67" s="37">
+        <v>413.416</v>
+      </c>
+      <c r="V67" s="37">
+        <v>413.096</v>
+      </c>
+      <c r="AE67" s="37">
+        <f>S67</f>
+        <v>471.87799999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:32">
+      <c r="B68" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="Q67" s="44">
-        <v>490.33</v>
-      </c>
-      <c r="U67" s="44">
-        <v>413.096</v>
-      </c>
-    </row>
-    <row r="68" spans="2:21">
-      <c r="B68" s="4" t="s">
+      <c r="O68" s="37">
+        <v>57.140999999999998</v>
+      </c>
+      <c r="P68" s="37">
+        <v>48.067999999999998</v>
+      </c>
+      <c r="Q68" s="37">
+        <v>48.082000000000001</v>
+      </c>
+      <c r="R68" s="37">
+        <v>44.399000000000001</v>
+      </c>
+      <c r="S68" s="37">
+        <v>40.345999999999997</v>
+      </c>
+      <c r="T68" s="71">
+        <v>37.909999999999997</v>
+      </c>
+      <c r="U68" s="37">
+        <v>34.283000000000001</v>
+      </c>
+      <c r="V68" s="37">
+        <v>33.274999999999999</v>
+      </c>
+      <c r="AE68" s="37">
+        <f>S68</f>
+        <v>40.345999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32">
+      <c r="B69" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Q68" s="44">
-        <v>44.399000000000001</v>
-      </c>
-      <c r="U68" s="44">
-        <v>33.274999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="2:21">
-      <c r="B69" s="4" t="s">
+      <c r="C69" s="4">
+        <f t="shared" ref="C69:U69" si="44">C65+SUM(C66:C68)</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="4">
+        <f t="shared" ref="D69:E69" si="45">D65+SUM(D66:D68)</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="37">
+        <f t="shared" si="44"/>
+        <v>1020.6089999999999</v>
+      </c>
+      <c r="P69" s="37">
+        <f t="shared" si="44"/>
+        <v>1083.3589999999999</v>
+      </c>
+      <c r="Q69" s="37">
+        <f t="shared" si="44"/>
+        <v>1070.5230000000001</v>
+      </c>
+      <c r="R69" s="37">
+        <f t="shared" si="44"/>
+        <v>1024.3849999999998</v>
+      </c>
+      <c r="S69" s="37">
+        <f t="shared" si="44"/>
+        <v>959.63099999999986</v>
+      </c>
+      <c r="T69" s="71">
+        <f t="shared" si="44"/>
+        <v>948.10400000000004</v>
+      </c>
+      <c r="U69" s="37">
+        <f t="shared" si="44"/>
+        <v>939.18700000000013</v>
+      </c>
+      <c r="V69" s="37">
+        <f>V65+SUM(V66:V68)</f>
+        <v>977.65</v>
+      </c>
+      <c r="AA69" s="4">
+        <f t="shared" ref="AA69:AF69" si="46">AA65+SUM(AA66:AA68)</f>
+        <v>0</v>
+      </c>
+      <c r="AB69" s="4">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AC69" s="4">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AD69" s="4">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AE69" s="37">
+        <f t="shared" si="46"/>
+        <v>959.63099999999986</v>
+      </c>
+      <c r="AF69" s="4">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32">
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="71"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="37"/>
+      <c r="AE70" s="37"/>
+    </row>
+    <row r="71" spans="2:32">
+      <c r="B71" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="4">
-        <f t="shared" ref="C69:T69" si="5">C65+SUM(C66:C68)</f>
-        <v>0</v>
-      </c>
-      <c r="D69" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E69" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F69" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L69" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N69" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O69" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="44">
-        <f t="shared" si="5"/>
-        <v>1024.3849999999998</v>
-      </c>
-      <c r="R69" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S69" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T69" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="44">
-        <f>U65+SUM(U66:U68)</f>
-        <v>977.65</v>
-      </c>
-    </row>
-    <row r="70" spans="2:21">
-      <c r="Q70" s="44"/>
-      <c r="U70" s="44"/>
-    </row>
-    <row r="71" spans="2:21">
-      <c r="B71" s="4" t="s">
+      <c r="O71" s="37">
+        <v>566.75900000000001</v>
+      </c>
+      <c r="P71" s="37">
+        <v>579.00800000000004</v>
+      </c>
+      <c r="Q71" s="37">
+        <v>588.09699999999998</v>
+      </c>
+      <c r="R71" s="37">
+        <v>592.42399999999998</v>
+      </c>
+      <c r="S71" s="37">
+        <v>602.46799999999996</v>
+      </c>
+      <c r="T71" s="71">
+        <v>600.33799999999997</v>
+      </c>
+      <c r="U71" s="37">
+        <v>560.53300000000002</v>
+      </c>
+      <c r="V71" s="37">
+        <v>559.34299999999996</v>
+      </c>
+      <c r="AE71" s="37">
+        <f>S71</f>
+        <v>602.46799999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32">
+      <c r="B72" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Q71" s="44">
-        <v>592.42399999999998</v>
-      </c>
-      <c r="U71" s="44">
+      <c r="C72" s="4">
+        <f t="shared" ref="C72:U72" si="47">C71+C69</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="4">
+        <f t="shared" ref="D72:E72" si="48">D71+D69</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="4">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="4">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="4">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="37">
+        <f t="shared" si="47"/>
+        <v>1587.3679999999999</v>
+      </c>
+      <c r="P72" s="37">
+        <f t="shared" si="47"/>
+        <v>1662.367</v>
+      </c>
+      <c r="Q72" s="37">
+        <f t="shared" si="47"/>
+        <v>1658.6200000000001</v>
+      </c>
+      <c r="R72" s="37">
+        <f t="shared" si="47"/>
+        <v>1616.8089999999997</v>
+      </c>
+      <c r="S72" s="37">
+        <f t="shared" si="47"/>
+        <v>1562.0989999999997</v>
+      </c>
+      <c r="T72" s="71">
+        <f t="shared" si="47"/>
+        <v>1548.442</v>
+      </c>
+      <c r="U72" s="37">
+        <f t="shared" si="47"/>
+        <v>1499.7200000000003</v>
+      </c>
+      <c r="V72" s="37">
+        <f>V71+V69</f>
+        <v>1536.9929999999999</v>
+      </c>
+      <c r="AA72" s="4">
+        <f t="shared" ref="AA72:AF72" si="49">AA71+AA69</f>
+        <v>0</v>
+      </c>
+      <c r="AB72" s="4">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AC72" s="4">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AD72" s="4">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AE72" s="37">
+        <f t="shared" si="49"/>
+        <v>1562.0989999999997</v>
+      </c>
+      <c r="AF72" s="4">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32">
+      <c r="B74" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="37">
+        <f t="shared" ref="C74:U74" si="50">C59-C69</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="37">
+        <f t="shared" ref="D74:E74" si="51">D59-D69</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="37">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="F74" s="37">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="37">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="37">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="37">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="37">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="37">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="37">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="37">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="37">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="37">
+        <f t="shared" si="50"/>
+        <v>566.75900000000001</v>
+      </c>
+      <c r="P74" s="37">
+        <f t="shared" si="50"/>
+        <v>579.00800000000027</v>
+      </c>
+      <c r="Q74" s="37">
+        <f t="shared" si="50"/>
+        <v>588.09699999999975</v>
+      </c>
+      <c r="R74" s="37">
+        <f t="shared" si="50"/>
+        <v>592.42400000000021</v>
+      </c>
+      <c r="S74" s="37">
+        <f t="shared" si="50"/>
+        <v>602.46800000000007</v>
+      </c>
+      <c r="T74" s="37">
+        <f t="shared" si="50"/>
+        <v>600.33799999999997</v>
+      </c>
+      <c r="U74" s="37">
+        <f t="shared" si="50"/>
+        <v>560.5329999999999</v>
+      </c>
+      <c r="V74" s="37">
+        <f>V59-V69</f>
         <v>559.34299999999996</v>
       </c>
-    </row>
-    <row r="72" spans="2:21">
-      <c r="B72" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" s="4">
-        <f t="shared" ref="C72:T72" si="6">C71+C69</f>
-        <v>0</v>
-      </c>
-      <c r="D72" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F72" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I72" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L72" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M72" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N72" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O72" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P72" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q72" s="44">
-        <f t="shared" si="6"/>
-        <v>1616.8089999999997</v>
-      </c>
-      <c r="R72" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S72" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T72" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U72" s="44">
-        <f>U71+U69</f>
-        <v>1536.9929999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="2:21">
-      <c r="B74" s="4" t="s">
+      <c r="AA74" s="37">
+        <f t="shared" ref="AA74:AF74" si="52">AA59-AA69</f>
+        <v>0</v>
+      </c>
+      <c r="AB74" s="37">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AC74" s="37">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AD74" s="37">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AE74" s="37">
+        <f t="shared" si="52"/>
+        <v>602.46800000000007</v>
+      </c>
+      <c r="AF74" s="37">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32">
+      <c r="B75" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C74" s="44">
-        <f t="shared" ref="C74:U74" si="7">C59-C69</f>
-        <v>0</v>
-      </c>
-      <c r="D74" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F74" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H74" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I74" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K74" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L74" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N74" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O74" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q74" s="44">
-        <f t="shared" si="7"/>
-        <v>592.42400000000021</v>
-      </c>
-      <c r="R74" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S74" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T74" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U74" s="44">
-        <f>U59-U69</f>
-        <v>559.34299999999996</v>
-      </c>
-    </row>
-    <row r="75" spans="2:21">
-      <c r="B75" s="4" t="s">
-        <v>119</v>
+      <c r="O75" s="4">
+        <f>O74/O22</f>
+        <v>39.652907017421121</v>
+      </c>
+      <c r="P75" s="4">
+        <f>P74/P22</f>
+        <v>40.526912577868011</v>
       </c>
       <c r="Q75" s="4">
         <f>Q74/Q22</f>
+        <v>41.01380849431618</v>
+      </c>
+      <c r="R75" s="4">
+        <f>R74/R22</f>
         <v>41.387732290065685</v>
+      </c>
+      <c r="S75" s="4">
+        <f>S74/S22</f>
+        <v>43.854127238317083</v>
+      </c>
+      <c r="T75" s="4">
+        <f>T74/T22</f>
+        <v>46.318802561530745</v>
       </c>
       <c r="U75" s="4">
         <f>U74/U22</f>
+        <v>43.747209864980867</v>
+      </c>
+      <c r="V75" s="4">
+        <f>V74/V22</f>
         <v>46.081973966057006</v>
       </c>
-    </row>
-    <row r="77" spans="2:21">
-      <c r="B77" s="50" t="s">
+      <c r="AE75" s="4">
+        <f>AE74/AE22</f>
+        <v>43.854127238317083</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32">
+      <c r="B77" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="44">
-        <f t="shared" ref="C77:U77" si="8">C49</f>
-        <v>0</v>
-      </c>
-      <c r="D77" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F77" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N77" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O77" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P77" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q77" s="44">
-        <f t="shared" si="8"/>
+      <c r="C77" s="37">
+        <f t="shared" ref="C77:U77" si="53">C49</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="37">
+        <f t="shared" ref="D77:E77" si="54">D49</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="37">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="37">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="37">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="37">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="37">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="37">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="37">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="37">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="37">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="37">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="37">
+        <f t="shared" si="53"/>
+        <v>215.09100000000001</v>
+      </c>
+      <c r="P77" s="37">
+        <f t="shared" si="53"/>
+        <v>258.04399999999998</v>
+      </c>
+      <c r="Q77" s="37">
+        <f t="shared" si="53"/>
+        <v>304.03899999999999</v>
+      </c>
+      <c r="R77" s="37">
+        <f t="shared" si="53"/>
         <v>282.76400000000001</v>
       </c>
-      <c r="R77" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S77" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T77" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U77" s="44">
-        <f>U49</f>
+      <c r="S77" s="37">
+        <f t="shared" si="53"/>
+        <v>320.52499999999998</v>
+      </c>
+      <c r="T77" s="37">
+        <f t="shared" si="53"/>
+        <v>200.62299999999999</v>
+      </c>
+      <c r="U77" s="37">
+        <f t="shared" si="53"/>
+        <v>44.939</v>
+      </c>
+      <c r="V77" s="37">
+        <f>V49</f>
         <v>32.113</v>
       </c>
-    </row>
-    <row r="78" spans="2:21">
-      <c r="B78" s="50" t="s">
+      <c r="AA77" s="37">
+        <f t="shared" ref="AA77:AF77" si="55">AA49</f>
+        <v>0</v>
+      </c>
+      <c r="AB77" s="37">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AC77" s="37">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AD77" s="37">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AE77" s="37">
+        <f t="shared" si="55"/>
+        <v>320.52499999999998</v>
+      </c>
+      <c r="AF77" s="37">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:32">
+      <c r="B78" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="44">
-        <f t="shared" ref="C78:U78" si="9">C62+C66</f>
-        <v>0</v>
-      </c>
-      <c r="D78" s="44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F78" s="44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H78" s="44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K78" s="44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L78" s="44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M78" s="44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N78" s="44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O78" s="44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P78" s="44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q78" s="44">
-        <f t="shared" si="9"/>
+      <c r="C78" s="37">
+        <f t="shared" ref="C78:U78" si="56">C62+C66</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="37">
+        <f t="shared" ref="D78:E78" si="57">D62+D66</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="37">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="37">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="37">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="37">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="37">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="37">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="37">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="37">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="37">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="37">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O78" s="37">
+        <f t="shared" si="56"/>
+        <v>32.985999999999997</v>
+      </c>
+      <c r="P78" s="37">
+        <f t="shared" si="56"/>
+        <v>44.168999999999997</v>
+      </c>
+      <c r="Q78" s="37">
+        <f t="shared" si="56"/>
+        <v>20.021999999999998</v>
+      </c>
+      <c r="R78" s="37">
+        <f t="shared" si="56"/>
         <v>15.61</v>
       </c>
-      <c r="R78" s="44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S78" s="44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T78" s="44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U78" s="44">
-        <f>U62+U66</f>
+      <c r="S78" s="37">
+        <f t="shared" si="56"/>
+        <v>15.679</v>
+      </c>
+      <c r="T78" s="37">
+        <f t="shared" si="56"/>
+        <v>14.712</v>
+      </c>
+      <c r="U78" s="37">
+        <f t="shared" si="56"/>
+        <v>48.872</v>
+      </c>
+      <c r="V78" s="37">
+        <f>V62+V66</f>
         <v>89.387999999999991</v>
       </c>
-    </row>
-    <row r="79" spans="2:21">
+      <c r="AA78" s="37">
+        <f t="shared" ref="AA78:AF78" si="58">AA62+AA66</f>
+        <v>0</v>
+      </c>
+      <c r="AB78" s="37">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AC78" s="37">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AD78" s="37">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AE78" s="37">
+        <f t="shared" si="58"/>
+        <v>15.679</v>
+      </c>
+      <c r="AF78" s="37">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32">
       <c r="B79" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="44">
-        <f t="shared" ref="C79:T79" si="10">C77-C78</f>
-        <v>0</v>
-      </c>
-      <c r="D79" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F79" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H79" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I79" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K79" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L79" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M79" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N79" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O79" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P79" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q79" s="44">
-        <f t="shared" si="10"/>
+      <c r="C79" s="37">
+        <f t="shared" ref="C79:U79" si="59">C77-C78</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="37">
+        <f t="shared" ref="D79:E79" si="60">D77-D78</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F79" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="37">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="O79" s="37">
+        <f t="shared" si="59"/>
+        <v>182.10500000000002</v>
+      </c>
+      <c r="P79" s="37">
+        <f t="shared" si="59"/>
+        <v>213.875</v>
+      </c>
+      <c r="Q79" s="37">
+        <f t="shared" si="59"/>
+        <v>284.017</v>
+      </c>
+      <c r="R79" s="37">
+        <f t="shared" si="59"/>
         <v>267.154</v>
       </c>
-      <c r="R79" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S79" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T79" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U79" s="44">
-        <f>U77-U78</f>
+      <c r="S79" s="37">
+        <f t="shared" si="59"/>
+        <v>304.846</v>
+      </c>
+      <c r="T79" s="37">
+        <f t="shared" si="59"/>
+        <v>185.911</v>
+      </c>
+      <c r="U79" s="37">
+        <f t="shared" si="59"/>
+        <v>-3.9329999999999998</v>
+      </c>
+      <c r="V79" s="37">
+        <f>V77-V78</f>
         <v>-57.274999999999991</v>
       </c>
-    </row>
-    <row r="81" spans="2:21">
-      <c r="B81" s="42" t="s">
+      <c r="AA79" s="37">
+        <f t="shared" ref="AA79:AF79" si="61">AA77-AA78</f>
+        <v>0</v>
+      </c>
+      <c r="AB79" s="37">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AC79" s="37">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AD79" s="37">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AE79" s="37">
+        <f t="shared" si="61"/>
+        <v>304.846</v>
+      </c>
+      <c r="AF79" s="37">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:31" s="35" customFormat="1">
+      <c r="B81" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="S81" s="40">
+        <f t="shared" ref="S81" si="62">S51/O51-1</f>
+        <v>-4.3874542042712905E-2</v>
+      </c>
+      <c r="T81" s="40">
+        <f t="shared" ref="T81:U81" si="63">T51/P51-1</f>
+        <v>0.33374194812917546</v>
+      </c>
+      <c r="U81" s="40">
+        <f t="shared" si="63"/>
+        <v>0.55366534242841015</v>
+      </c>
+      <c r="V81" s="40">
+        <f>V51/R51-1</f>
+        <v>0.66124210638034442</v>
+      </c>
+    </row>
+    <row r="82" spans="2:31">
+      <c r="B82" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="U81" s="46">
-        <f>U51/Q51-1</f>
-        <v>0.66124210638034442</v>
-      </c>
-    </row>
-    <row r="82" spans="2:21">
-      <c r="B82" s="46" t="s">
+      <c r="Q82" s="39">
+        <f>Q51/P51-1</f>
+        <v>8.4579940667802722E-2</v>
+      </c>
+      <c r="R82" s="39">
+        <f>R51/Q51-1</f>
+        <v>3.8964459977272492E-2</v>
+      </c>
+      <c r="S82" s="39">
+        <f t="shared" ref="S82:U82" si="64">S51/R51-1</f>
+        <v>-0.17983006975276972</v>
+      </c>
+      <c r="T82" s="39">
+        <f t="shared" si="64"/>
+        <v>0.44313084112149537</v>
+      </c>
+      <c r="U82" s="39">
+        <f>U51/T51-1</f>
+        <v>0.2634185100590567</v>
+      </c>
+      <c r="V82" s="39">
+        <f>V51/U51-1</f>
+        <v>0.11090301161589489</v>
+      </c>
+    </row>
+    <row r="83" spans="2:31" s="39" customFormat="1">
+      <c r="B83" s="39" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="83" spans="2:21">
-      <c r="B83" s="4" t="s">
+      <c r="R83" s="39">
+        <f t="shared" ref="R83:U83" si="65">R51/SUM(O8:R8)</f>
+        <v>0.14550204291735028</v>
+      </c>
+      <c r="S83" s="39">
+        <f t="shared" si="65"/>
+        <v>0.11485976539211686</v>
+      </c>
+      <c r="T83" s="39">
+        <f t="shared" si="65"/>
+        <v>0.16699505893382946</v>
+      </c>
+      <c r="U83" s="39">
+        <f t="shared" si="65"/>
+        <v>0.21274125671165287</v>
+      </c>
+      <c r="V83" s="39">
+        <f>V51/SUM(S8:V8)</f>
+        <v>0.23601398601398599</v>
+      </c>
+    </row>
+    <row r="85" spans="2:31">
+      <c r="B85" s="36" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="85" spans="2:21">
-      <c r="B85" s="43" t="s">
-        <v>123</v>
+      <c r="O85" s="4">
+        <v>38.81</v>
+      </c>
+      <c r="P85" s="4">
+        <v>52.92</v>
       </c>
       <c r="Q85" s="4">
+        <v>57.45</v>
+      </c>
+      <c r="R85" s="4">
         <v>60.59</v>
       </c>
       <c r="S85" s="4">
+        <v>62.94</v>
+      </c>
+      <c r="T85" s="4">
         <v>64.33</v>
       </c>
-      <c r="T85" s="4">
+      <c r="U85" s="4">
         <v>56.05</v>
       </c>
-      <c r="U85" s="4">
+      <c r="V85" s="4">
         <v>47.82</v>
       </c>
-    </row>
-    <row r="86" spans="2:21">
+      <c r="AE85" s="4">
+        <f>S85</f>
+        <v>62.94</v>
+      </c>
+    </row>
+    <row r="86" spans="2:31">
       <c r="B86" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q86" s="44">
-        <f>Q85*Q22</f>
+      <c r="O86" s="37">
+        <f t="shared" ref="O86" si="66">O85*O22</f>
+        <v>554.71132999999998</v>
+      </c>
+      <c r="P86" s="37">
+        <f t="shared" ref="P86:Q86" si="67">P85*P22</f>
+        <v>756.06804000000011</v>
+      </c>
+      <c r="Q86" s="37">
+        <f t="shared" si="67"/>
+        <v>823.77555000000007</v>
+      </c>
+      <c r="R86" s="37">
+        <f>R85*R22</f>
         <v>867.28526000000011</v>
       </c>
-      <c r="U86" s="44">
-        <f>U85*U22</f>
+      <c r="S86" s="37">
+        <f t="shared" ref="S86" si="68">S85*S22</f>
+        <v>864.66971999999998</v>
+      </c>
+      <c r="T86" s="37">
+        <f t="shared" ref="T86" si="69">T85*T22</f>
+        <v>833.78112999999996</v>
+      </c>
+      <c r="U86" s="37">
+        <f t="shared" ref="U86" si="70">U85*U22</f>
+        <v>718.16864999999996</v>
+      </c>
+      <c r="V86" s="37">
+        <f>V85*V22</f>
         <v>580.43916000000002</v>
       </c>
-    </row>
-    <row r="87" spans="2:21">
+      <c r="AE86" s="37">
+        <f t="shared" ref="AE86" si="71">AE85*AE22</f>
+        <v>864.66971999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="2:31">
       <c r="B87" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q87" s="44">
-        <f>Q86-Q79</f>
+      <c r="O87" s="37">
+        <f t="shared" ref="O87" si="72">O86-O79</f>
+        <v>372.60632999999996</v>
+      </c>
+      <c r="P87" s="37">
+        <f t="shared" ref="P87:Q87" si="73">P86-P79</f>
+        <v>542.19304000000011</v>
+      </c>
+      <c r="Q87" s="37">
+        <f t="shared" si="73"/>
+        <v>539.75855000000001</v>
+      </c>
+      <c r="R87" s="37">
+        <f>R86-R79</f>
         <v>600.13126000000011</v>
       </c>
-      <c r="U87" s="44">
-        <f>U86-U79</f>
+      <c r="S87" s="37">
+        <f t="shared" ref="S87" si="74">S86-S79</f>
+        <v>559.82371999999998</v>
+      </c>
+      <c r="T87" s="37">
+        <f t="shared" ref="T87" si="75">T86-T79</f>
+        <v>647.87013000000002</v>
+      </c>
+      <c r="U87" s="37">
+        <f t="shared" ref="U87" si="76">U86-U79</f>
+        <v>722.10164999999995</v>
+      </c>
+      <c r="V87" s="37">
+        <f>V86-V79</f>
         <v>637.71415999999999</v>
       </c>
-    </row>
-    <row r="89" spans="2:21" s="61" customFormat="1">
-      <c r="B89" s="61" t="s">
+      <c r="AE87" s="37">
+        <f t="shared" ref="AE87" si="77">AE86-AE79</f>
+        <v>559.82371999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="2:31" s="54" customFormat="1">
+      <c r="B89" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="Q89" s="61">
-        <f>Q85/Q75</f>
+      <c r="O89" s="54">
+        <f t="shared" ref="O89:R89" si="78">O85/O75</f>
+        <v>0.97874286954419776</v>
+      </c>
+      <c r="P89" s="54">
+        <f t="shared" si="78"/>
+        <v>1.3057989526914995</v>
+      </c>
+      <c r="Q89" s="54">
+        <f t="shared" si="78"/>
+        <v>1.4007477507962129</v>
+      </c>
+      <c r="R89" s="54">
+        <f>R85/R75</f>
         <v>1.4639603729761113</v>
       </c>
-      <c r="U89" s="61">
+      <c r="S89" s="54">
+        <f>S85/S75</f>
+        <v>1.4352126917944188</v>
+      </c>
+      <c r="T89" s="54">
+        <f>T85/T75</f>
+        <v>1.3888528295726741</v>
+      </c>
+      <c r="U89" s="54">
         <f>U85/U75</f>
+        <v>1.2812245666178443</v>
+      </c>
+      <c r="V89" s="54">
+        <f>V85/V75</f>
         <v>1.0377159631925315</v>
       </c>
-    </row>
-    <row r="90" spans="2:21">
+      <c r="AE89" s="54">
+        <f>AE85/AE75</f>
+        <v>1.4352126917944188</v>
+      </c>
+    </row>
+    <row r="90" spans="2:31">
       <c r="B90" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="2:21">
+    <row r="91" spans="2:31">
       <c r="B91" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="2:21">
+    <row r="92" spans="2:31">
       <c r="B92" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="93" spans="2:21">
+      <c r="R92" s="54">
+        <f t="shared" ref="R92:U92" si="79">R85/SUM(O21:R21)</f>
+        <v>6.0755610152631707</v>
+      </c>
+      <c r="S92" s="54">
+        <f t="shared" si="79"/>
+        <v>7.6684006545109309</v>
+      </c>
+      <c r="T92" s="54">
+        <f t="shared" si="79"/>
+        <v>8.075826144091339</v>
+      </c>
+      <c r="U92" s="54">
+        <f t="shared" si="79"/>
+        <v>7.1863515667116236</v>
+      </c>
+      <c r="V92" s="54">
+        <f>V85/SUM(S21:V21)</f>
+        <v>6.6600722058479755</v>
+      </c>
+      <c r="AE92" s="54">
+        <f>AE85/AE21</f>
+        <v>7.5265900663289287</v>
+      </c>
+    </row>
+    <row r="93" spans="2:31">
       <c r="B93" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="2:21">
+    <row r="94" spans="2:31">
       <c r="B94" s="4" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" s="35" customFormat="1">
+      <c r="B106" s="35" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" r:id="rId1" xr:uid="{60A3BD83-6E80-4D7D-9202-B959033B5516}"/>
+    <hyperlink ref="V1" r:id="rId1" xr:uid="{60A3BD83-6E80-4D7D-9202-B959033B5516}"/>
+    <hyperlink ref="U1" r:id="rId2" xr:uid="{BD00DA4B-97A7-46A3-87E5-893B10F5809A}"/>
+    <hyperlink ref="T1" r:id="rId3" xr:uid="{595EE6D6-AEE1-4265-8D75-38AED39C4464}"/>
+    <hyperlink ref="S1" r:id="rId4" xr:uid="{CECFF7AC-5D18-4338-8356-59BCBA9DD7B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
   <ignoredErrors>
-    <ignoredError sqref="U8" formulaRange="1"/>
+    <ignoredError sqref="S8:V8 AE4:AE7" formulaRange="1"/>
+    <ignoredError sqref="AE8:AE21" formula="1" formulaRange="1"/>
+    <ignoredError sqref="AE53:AE74" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>